--- a/Code/Results/Cases/Case_3_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.26074239618055</v>
+        <v>26.26074239618053</v>
       </c>
       <c r="C2">
-        <v>19.81281183028339</v>
+        <v>19.81281183028357</v>
       </c>
       <c r="D2">
-        <v>5.512284427615124</v>
+        <v>5.512284427615144</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.64377228701371</v>
+        <v>63.64377228701385</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.37244494055149</v>
+        <v>31.37244494055146</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.23456072009095</v>
+        <v>24.23456072009098</v>
       </c>
       <c r="C3">
-        <v>18.28736903079152</v>
+        <v>18.28736903079163</v>
       </c>
       <c r="D3">
-        <v>5.293845618254906</v>
+        <v>5.293845618254703</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.22907668472364</v>
+        <v>59.22907668472397</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.77315970744257</v>
+        <v>28.77315970744259</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.9472653846972</v>
+        <v>22.94726538469722</v>
       </c>
       <c r="C4">
-        <v>17.32148760834972</v>
+        <v>17.32148760834966</v>
       </c>
       <c r="D4">
-        <v>5.165105870518207</v>
+        <v>5.16510587051839</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.47496987818615</v>
+        <v>56.47496987818617</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.14816313913849</v>
+        <v>27.14816313913841</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.41094337424345</v>
+        <v>22.41094337424332</v>
       </c>
       <c r="C5">
-        <v>16.91975130107878</v>
+        <v>16.91975130107862</v>
       </c>
       <c r="D5">
-        <v>5.113626907238423</v>
+        <v>5.113626907238446</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.3403543913181</v>
+        <v>55.34035439131829</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.47664548958975</v>
+        <v>26.47664548958976</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.32115575945687</v>
+        <v>22.32115575945684</v>
       </c>
       <c r="C6">
-        <v>16.8525319406917</v>
+        <v>16.85253194069139</v>
       </c>
       <c r="D6">
-        <v>5.105128845168839</v>
+        <v>5.105128845168771</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.15118034693618</v>
+        <v>55.15118034693628</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.3645259637679</v>
+        <v>26.36452596376792</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.94008093538273</v>
+        <v>22.94008093538271</v>
       </c>
       <c r="C7">
-        <v>17.31610350716451</v>
+        <v>17.31610350716452</v>
       </c>
       <c r="D7">
-        <v>5.164408059679074</v>
+        <v>5.164408059679005</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.45971924090908</v>
+        <v>56.45971924090898</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.13914693204184</v>
+        <v>27.13914693204188</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.57050740425925</v>
+        <v>25.57050740425927</v>
       </c>
       <c r="C8">
-        <v>19.29239799188974</v>
+        <v>19.29239799188955</v>
       </c>
       <c r="D8">
-        <v>5.435600812313787</v>
+        <v>5.435600812313715</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.12960187605226</v>
+        <v>62.12960187605231</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.43591206868364</v>
+        <v>30.43591206868352</v>
       </c>
       <c r="C9">
-        <v>22.98044942835514</v>
+        <v>22.9804494283551</v>
       </c>
       <c r="D9">
-        <v>6.032446613800391</v>
+        <v>6.032446613800286</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>73.08945504693048</v>
+        <v>73.08945504692998</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36.92441039537638</v>
+        <v>36.92441039537627</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.92778124986652</v>
+        <v>33.92778124986635</v>
       </c>
       <c r="C10">
-        <v>25.66205414566097</v>
+        <v>25.66205414566086</v>
       </c>
       <c r="D10">
-        <v>6.556434378623035</v>
+        <v>6.556434378623011</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>81.40628306841474</v>
+        <v>81.40628306841445</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>41.83682214269655</v>
+        <v>41.83682214269644</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>35.53257245838282</v>
       </c>
       <c r="C11">
-        <v>26.907117334861</v>
+        <v>26.90711733486092</v>
       </c>
       <c r="D11">
-        <v>6.831280990223468</v>
+        <v>6.831280990223633</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>85.28022333610198</v>
+        <v>85.28022333610237</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>44.20511616269389</v>
+        <v>44.20511616269399</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.14725033160621</v>
+        <v>36.14725033160636</v>
       </c>
       <c r="C12">
-        <v>27.3864909989098</v>
+        <v>27.38649099890972</v>
       </c>
       <c r="D12">
-        <v>6.943218232454947</v>
+        <v>6.943218232455177</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>86.77247505848055</v>
+        <v>86.77247505848051</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>45.13488623745055</v>
+        <v>45.1348862374506</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.01445815120693</v>
+        <v>36.01445815120708</v>
       </c>
       <c r="C13">
-        <v>27.28280538665645</v>
+        <v>27.2828053866566</v>
       </c>
       <c r="D13">
-        <v>6.918702357886707</v>
+        <v>6.918702357886695</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>86.44970098108911</v>
+        <v>86.44970098108963</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>44.93287058573819</v>
+        <v>44.93287058573834</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.58296751310523</v>
+        <v>35.58296751310522</v>
       </c>
       <c r="C14">
-        <v>26.94636498179498</v>
+        <v>26.94636498179502</v>
       </c>
       <c r="D14">
-        <v>6.840312156609415</v>
+        <v>6.840312156609449</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>85.40239182185452</v>
+        <v>85.40239182185478</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>44.28084117281679</v>
+        <v>44.28084117281681</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.31975269804924</v>
+        <v>35.3197526980492</v>
       </c>
       <c r="C15">
-        <v>26.74147773723664</v>
+        <v>26.74147773723666</v>
       </c>
       <c r="D15">
-        <v>6.793422441634648</v>
+        <v>6.793422441634656</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>84.76464791845778</v>
+        <v>84.76464791845804</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>43.88628605954682</v>
+        <v>43.88628605954683</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.82358044842115</v>
+        <v>33.82358044842134</v>
       </c>
       <c r="C16">
-        <v>25.58151300396747</v>
+        <v>25.58151300396753</v>
       </c>
       <c r="D16">
-        <v>6.539398892799504</v>
+        <v>6.539398892799361</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>81.15584935808216</v>
+        <v>81.15584935808279</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>41.68574935682718</v>
+        <v>41.68574935682734</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.91257890618444</v>
+        <v>32.91257890618428</v>
       </c>
       <c r="C17">
-        <v>24.87881634612295</v>
+        <v>24.87881634612281</v>
       </c>
       <c r="D17">
-        <v>6.394366899405207</v>
+        <v>6.394366899405068</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>78.97217005424855</v>
+        <v>78.9721700542478</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.38976645301854</v>
+        <v>32.38976645301857</v>
       </c>
       <c r="C18">
-        <v>24.47667668505569</v>
+        <v>24.47667668505596</v>
       </c>
       <c r="D18">
-        <v>6.314171301918386</v>
+        <v>6.314171301918356</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>77.72372617166987</v>
+        <v>77.72372617167068</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>39.63681755643305</v>
+        <v>39.63681755643321</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.21284377855634</v>
+        <v>32.21284377855616</v>
       </c>
       <c r="C19">
-        <v>24.34076868203393</v>
+        <v>24.34076868203384</v>
       </c>
       <c r="D19">
-        <v>6.287513224362186</v>
+        <v>6.287513224362342</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>77.30203737589166</v>
+        <v>77.3020373758915</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.00940847571023</v>
+        <v>33.0094084757102</v>
       </c>
       <c r="C20">
-        <v>24.9533845650555</v>
+        <v>24.95338456505542</v>
       </c>
       <c r="D20">
-        <v>6.409457616641514</v>
+        <v>6.409457616641505</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>79.20377460470661</v>
+        <v>79.20377460470644</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>40.51568166301212</v>
+        <v>40.51568166301208</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.70946865274343</v>
+        <v>35.70946865274355</v>
       </c>
       <c r="C21">
-        <v>27.04492619677069</v>
+        <v>27.04492619677095</v>
       </c>
       <c r="D21">
-        <v>6.863095470104175</v>
+        <v>6.863095470104216</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>85.70919592135714</v>
+        <v>85.70919592135702</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>44.47131430378359</v>
+        <v>44.47131430378349</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.51904135526851</v>
+        <v>37.51904135526863</v>
       </c>
       <c r="C22">
-        <v>28.46186146375721</v>
+        <v>28.4618614637572</v>
       </c>
       <c r="D22">
-        <v>7.207982187939195</v>
+        <v>7.20798218793901</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>90.11963103396327</v>
+        <v>90.11963103396371</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>47.26220869985494</v>
+        <v>47.26220869985509</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.54687689018204</v>
+        <v>36.54687689018222</v>
       </c>
       <c r="C23">
-        <v>27.69894929361934</v>
+        <v>27.69894929361939</v>
       </c>
       <c r="D23">
-        <v>7.018143158280893</v>
+        <v>7.018143158280811</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>87.74515017751008</v>
+        <v>87.74515017751007</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>45.74683005049264</v>
+        <v>45.74683005049276</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.96562922916665</v>
+        <v>32.96562922916683</v>
       </c>
       <c r="C24">
         <v>24.91966679841646</v>
       </c>
       <c r="D24">
-        <v>6.402625354889024</v>
+        <v>6.402625354889098</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>79.0990452618509</v>
+        <v>79.09904526185139</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>40.453267266887</v>
+        <v>40.45326726688718</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.14287344486357</v>
+        <v>29.14287344486346</v>
       </c>
       <c r="C25">
-        <v>21.99548412431587</v>
+        <v>21.99548412431567</v>
       </c>
       <c r="D25">
-        <v>5.860268607369479</v>
+        <v>5.860268607369457</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>70.06936828398194</v>
+        <v>70.06936828398138</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>35.17281123380774</v>
+        <v>35.17281123380761</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.26074239618053</v>
+        <v>26.26074239618055</v>
       </c>
       <c r="C2">
-        <v>19.81281183028357</v>
+        <v>19.81281183028339</v>
       </c>
       <c r="D2">
-        <v>5.512284427615144</v>
+        <v>5.512284427615124</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.64377228701385</v>
+        <v>63.64377228701371</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.37244494055146</v>
+        <v>31.37244494055149</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.23456072009098</v>
+        <v>24.23456072009095</v>
       </c>
       <c r="C3">
-        <v>18.28736903079163</v>
+        <v>18.28736903079152</v>
       </c>
       <c r="D3">
-        <v>5.293845618254703</v>
+        <v>5.293845618254906</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.22907668472397</v>
+        <v>59.22907668472364</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.77315970744259</v>
+        <v>28.77315970744257</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.94726538469722</v>
+        <v>22.9472653846972</v>
       </c>
       <c r="C4">
-        <v>17.32148760834966</v>
+        <v>17.32148760834972</v>
       </c>
       <c r="D4">
-        <v>5.16510587051839</v>
+        <v>5.165105870518207</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.47496987818617</v>
+        <v>56.47496987818615</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.14816313913841</v>
+        <v>27.14816313913849</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.41094337424332</v>
+        <v>22.41094337424345</v>
       </c>
       <c r="C5">
-        <v>16.91975130107862</v>
+        <v>16.91975130107878</v>
       </c>
       <c r="D5">
-        <v>5.113626907238446</v>
+        <v>5.113626907238423</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.34035439131829</v>
+        <v>55.3403543913181</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.47664548958976</v>
+        <v>26.47664548958975</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.32115575945684</v>
+        <v>22.32115575945687</v>
       </c>
       <c r="C6">
-        <v>16.85253194069139</v>
+        <v>16.8525319406917</v>
       </c>
       <c r="D6">
-        <v>5.105128845168771</v>
+        <v>5.105128845168839</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.15118034693628</v>
+        <v>55.15118034693618</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.36452596376792</v>
+        <v>26.3645259637679</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.94008093538271</v>
+        <v>22.94008093538273</v>
       </c>
       <c r="C7">
-        <v>17.31610350716452</v>
+        <v>17.31610350716451</v>
       </c>
       <c r="D7">
-        <v>5.164408059679005</v>
+        <v>5.164408059679074</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.45971924090898</v>
+        <v>56.45971924090908</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.13914693204188</v>
+        <v>27.13914693204184</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.57050740425927</v>
+        <v>25.57050740425925</v>
       </c>
       <c r="C8">
-        <v>19.29239799188955</v>
+        <v>19.29239799188974</v>
       </c>
       <c r="D8">
-        <v>5.435600812313715</v>
+        <v>5.435600812313787</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.12960187605231</v>
+        <v>62.12960187605226</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.43591206868352</v>
+        <v>30.43591206868364</v>
       </c>
       <c r="C9">
-        <v>22.9804494283551</v>
+        <v>22.98044942835514</v>
       </c>
       <c r="D9">
-        <v>6.032446613800286</v>
+        <v>6.032446613800391</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>73.08945504692998</v>
+        <v>73.08945504693048</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36.92441039537627</v>
+        <v>36.92441039537638</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.92778124986635</v>
+        <v>33.92778124986652</v>
       </c>
       <c r="C10">
-        <v>25.66205414566086</v>
+        <v>25.66205414566097</v>
       </c>
       <c r="D10">
-        <v>6.556434378623011</v>
+        <v>6.556434378623035</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>81.40628306841445</v>
+        <v>81.40628306841474</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>41.83682214269644</v>
+        <v>41.83682214269655</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>35.53257245838282</v>
       </c>
       <c r="C11">
-        <v>26.90711733486092</v>
+        <v>26.907117334861</v>
       </c>
       <c r="D11">
-        <v>6.831280990223633</v>
+        <v>6.831280990223468</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>85.28022333610237</v>
+        <v>85.28022333610198</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>44.20511616269399</v>
+        <v>44.20511616269389</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.14725033160636</v>
+        <v>36.14725033160621</v>
       </c>
       <c r="C12">
-        <v>27.38649099890972</v>
+        <v>27.3864909989098</v>
       </c>
       <c r="D12">
-        <v>6.943218232455177</v>
+        <v>6.943218232454947</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>86.77247505848051</v>
+        <v>86.77247505848055</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>45.1348862374506</v>
+        <v>45.13488623745055</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.01445815120708</v>
+        <v>36.01445815120693</v>
       </c>
       <c r="C13">
-        <v>27.2828053866566</v>
+        <v>27.28280538665645</v>
       </c>
       <c r="D13">
-        <v>6.918702357886695</v>
+        <v>6.918702357886707</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>86.44970098108963</v>
+        <v>86.44970098108911</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>44.93287058573834</v>
+        <v>44.93287058573819</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.58296751310522</v>
+        <v>35.58296751310523</v>
       </c>
       <c r="C14">
-        <v>26.94636498179502</v>
+        <v>26.94636498179498</v>
       </c>
       <c r="D14">
-        <v>6.840312156609449</v>
+        <v>6.840312156609415</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>85.40239182185478</v>
+        <v>85.40239182185452</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>44.28084117281681</v>
+        <v>44.28084117281679</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.3197526980492</v>
+        <v>35.31975269804924</v>
       </c>
       <c r="C15">
-        <v>26.74147773723666</v>
+        <v>26.74147773723664</v>
       </c>
       <c r="D15">
-        <v>6.793422441634656</v>
+        <v>6.793422441634648</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>84.76464791845804</v>
+        <v>84.76464791845778</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>43.88628605954683</v>
+        <v>43.88628605954682</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.82358044842134</v>
+        <v>33.82358044842115</v>
       </c>
       <c r="C16">
-        <v>25.58151300396753</v>
+        <v>25.58151300396747</v>
       </c>
       <c r="D16">
-        <v>6.539398892799361</v>
+        <v>6.539398892799504</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>81.15584935808279</v>
+        <v>81.15584935808216</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>41.68574935682734</v>
+        <v>41.68574935682718</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.91257890618428</v>
+        <v>32.91257890618444</v>
       </c>
       <c r="C17">
-        <v>24.87881634612281</v>
+        <v>24.87881634612295</v>
       </c>
       <c r="D17">
-        <v>6.394366899405068</v>
+        <v>6.394366899405207</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>78.9721700542478</v>
+        <v>78.97217005424855</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.38976645301857</v>
+        <v>32.38976645301854</v>
       </c>
       <c r="C18">
-        <v>24.47667668505596</v>
+        <v>24.47667668505569</v>
       </c>
       <c r="D18">
-        <v>6.314171301918356</v>
+        <v>6.314171301918386</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>77.72372617167068</v>
+        <v>77.72372617166987</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>39.63681755643321</v>
+        <v>39.63681755643305</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.21284377855616</v>
+        <v>32.21284377855634</v>
       </c>
       <c r="C19">
-        <v>24.34076868203384</v>
+        <v>24.34076868203393</v>
       </c>
       <c r="D19">
-        <v>6.287513224362342</v>
+        <v>6.287513224362186</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>77.3020373758915</v>
+        <v>77.30203737589166</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.0094084757102</v>
+        <v>33.00940847571023</v>
       </c>
       <c r="C20">
-        <v>24.95338456505542</v>
+        <v>24.9533845650555</v>
       </c>
       <c r="D20">
-        <v>6.409457616641505</v>
+        <v>6.409457616641514</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>79.20377460470644</v>
+        <v>79.20377460470661</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>40.51568166301208</v>
+        <v>40.51568166301212</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.70946865274355</v>
+        <v>35.70946865274343</v>
       </c>
       <c r="C21">
-        <v>27.04492619677095</v>
+        <v>27.04492619677069</v>
       </c>
       <c r="D21">
-        <v>6.863095470104216</v>
+        <v>6.863095470104175</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>85.70919592135702</v>
+        <v>85.70919592135714</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>44.47131430378349</v>
+        <v>44.47131430378359</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.51904135526863</v>
+        <v>37.51904135526851</v>
       </c>
       <c r="C22">
-        <v>28.4618614637572</v>
+        <v>28.46186146375721</v>
       </c>
       <c r="D22">
-        <v>7.20798218793901</v>
+        <v>7.207982187939195</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>90.11963103396371</v>
+        <v>90.11963103396327</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>47.26220869985509</v>
+        <v>47.26220869985494</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.54687689018222</v>
+        <v>36.54687689018204</v>
       </c>
       <c r="C23">
-        <v>27.69894929361939</v>
+        <v>27.69894929361934</v>
       </c>
       <c r="D23">
-        <v>7.018143158280811</v>
+        <v>7.018143158280893</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>87.74515017751007</v>
+        <v>87.74515017751008</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>45.74683005049276</v>
+        <v>45.74683005049264</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.96562922916683</v>
+        <v>32.96562922916665</v>
       </c>
       <c r="C24">
         <v>24.91966679841646</v>
       </c>
       <c r="D24">
-        <v>6.402625354889098</v>
+        <v>6.402625354889024</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>79.09904526185139</v>
+        <v>79.0990452618509</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>40.45326726688718</v>
+        <v>40.453267266887</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.14287344486346</v>
+        <v>29.14287344486357</v>
       </c>
       <c r="C25">
-        <v>21.99548412431567</v>
+        <v>21.99548412431587</v>
       </c>
       <c r="D25">
-        <v>5.860268607369457</v>
+        <v>5.860268607369479</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>70.06936828398138</v>
+        <v>70.06936828398194</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>35.17281123380761</v>
+        <v>35.17281123380774</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.26074239618055</v>
+        <v>26.08865555379599</v>
       </c>
       <c r="C2">
-        <v>19.81281183028339</v>
+        <v>19.61587716212518</v>
       </c>
       <c r="D2">
-        <v>5.512284427615124</v>
+        <v>5.666466318083132</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.64377228701371</v>
+        <v>63.62214888670462</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.015609623643891</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.37244494055149</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>31.27650752434064</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.23456072009095</v>
+        <v>24.07421807578998</v>
       </c>
       <c r="C3">
-        <v>18.28736903079152</v>
+        <v>18.09861612188952</v>
       </c>
       <c r="D3">
-        <v>5.293845618254906</v>
+        <v>5.451766522779757</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.22907668472364</v>
+        <v>59.25651095262629</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.034443455115462</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.77315970744257</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>28.68946757002379</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.9472653846972</v>
+        <v>22.7943012066823</v>
       </c>
       <c r="C4">
-        <v>17.32148760834972</v>
+        <v>17.13761507549597</v>
       </c>
       <c r="D4">
-        <v>5.165105870518207</v>
+        <v>5.325192152855654</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.47496987818615</v>
+        <v>56.53452389202792</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.045975107499363</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.14816313913849</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>27.0714385215682</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.41094337424345</v>
+        <v>22.26105170148729</v>
       </c>
       <c r="C5">
-        <v>16.91975130107878</v>
+        <v>16.73784595042414</v>
       </c>
       <c r="D5">
-        <v>5.113626907238423</v>
+        <v>5.274571873297595</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.3403543913181</v>
+        <v>55.41357686698419</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.050681605493282</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.47664548958975</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>26.40266444500681</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.32115575945687</v>
+        <v>22.17177888563615</v>
       </c>
       <c r="C6">
-        <v>16.8525319406917</v>
+        <v>16.67095227564808</v>
       </c>
       <c r="D6">
-        <v>5.105128845168839</v>
+        <v>5.266215181718532</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.15118034693618</v>
+        <v>55.22670952561206</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.051463954135804</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.3645259637679</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>26.29099573648472</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.94008093538273</v>
+        <v>22.78715789887153</v>
       </c>
       <c r="C7">
-        <v>17.31610350716451</v>
+        <v>17.13225757596562</v>
       </c>
       <c r="D7">
-        <v>5.164408059679074</v>
+        <v>5.32450600838229</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.45971924090908</v>
+        <v>56.51945515167952</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.04603853319177</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.13914693204184</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>27.06245965494148</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.57050740425925</v>
+        <v>25.40245045473369</v>
       </c>
       <c r="C8">
-        <v>19.29239799188974</v>
+        <v>19.09832429919954</v>
       </c>
       <c r="D8">
-        <v>5.435600812313787</v>
+        <v>5.591105309339668</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.12960187605226</v>
+        <v>62.12452858224029</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.022120453053792</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.48088273704706</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>30.38931193639035</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.43591206868364</v>
+        <v>30.23817425740777</v>
       </c>
       <c r="C9">
-        <v>22.98044942835514</v>
+        <v>22.76419802378953</v>
       </c>
       <c r="D9">
-        <v>6.032446613800391</v>
+        <v>6.177296202425007</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>73.08945504693048</v>
+        <v>72.92021769972638</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.974069749586165</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36.92441039537638</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>36.79635089674381</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.92778124986652</v>
+        <v>33.70546900813641</v>
       </c>
       <c r="C10">
-        <v>25.66205414566097</v>
+        <v>25.42589258012882</v>
       </c>
       <c r="D10">
-        <v>6.556434378623035</v>
+        <v>6.690975975738758</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>81.40628306841474</v>
+        <v>81.15551083170388</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.936346012164332</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>41.83682214269655</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>41.67034705270778</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.53257245838282</v>
+        <v>35.29729790775983</v>
       </c>
       <c r="C11">
-        <v>26.907117334861</v>
+        <v>26.66003765634635</v>
       </c>
       <c r="D11">
-        <v>6.831280990223468</v>
+        <v>6.959882699837647</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>85.28022333610198</v>
+        <v>84.98835072134111</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.918038669441206</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>44.20511616269389</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>44.01513769308221</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.14725033160621</v>
+        <v>35.90661695894929</v>
       </c>
       <c r="C12">
-        <v>27.3864909989098</v>
+        <v>27.13482773467366</v>
       </c>
       <c r="D12">
-        <v>6.943218232454947</v>
+        <v>7.06926570305817</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>86.77247505848055</v>
+        <v>86.46391378265741</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.910856928629523</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>45.13488623745055</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>44.93451773165607</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.01445815120693</v>
+        <v>35.77500363084143</v>
       </c>
       <c r="C13">
-        <v>27.28280538665645</v>
+        <v>27.03215370475626</v>
       </c>
       <c r="D13">
-        <v>6.918702357886707</v>
+        <v>7.045316628008766</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>86.44970098108911</v>
+        <v>86.14479713976868</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.912416543608215</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>44.93287058573819</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>44.73482173282702</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.58296751310523</v>
+        <v>35.34726274322207</v>
       </c>
       <c r="C14">
-        <v>26.94636498179498</v>
+        <v>26.69891874981663</v>
       </c>
       <c r="D14">
-        <v>6.840312156609415</v>
+        <v>6.968710921506574</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>85.40239182185452</v>
+        <v>85.10917333907504</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.917453453398664</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>44.28084117281679</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>44.09004318810111</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.31975269804924</v>
+        <v>35.08627797440202</v>
       </c>
       <c r="C15">
-        <v>26.74147773723664</v>
+        <v>26.49592875780825</v>
       </c>
       <c r="D15">
-        <v>6.793422441634648</v>
+        <v>6.922869154866354</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>84.76464791845778</v>
+        <v>84.47841769625623</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.92050304185782</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>43.88628605954682</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>43.69970842465307</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.82358044842115</v>
+        <v>33.60206572195095</v>
       </c>
       <c r="C16">
-        <v>25.58151300396747</v>
+        <v>25.34601474081283</v>
       </c>
       <c r="D16">
-        <v>6.539398892799504</v>
+        <v>6.674294813296172</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>81.15584935808216</v>
+        <v>80.90764344354373</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.937513042083536</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>41.68574935682718</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>41.5206458048107</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.91257890618444</v>
+        <v>32.69784273530757</v>
       </c>
       <c r="C17">
-        <v>24.87881634612295</v>
+        <v>24.64891284043954</v>
       </c>
       <c r="D17">
-        <v>6.394366899405207</v>
+        <v>6.532221622243394</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>78.97217005424855</v>
+        <v>78.74597340927001</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.947605858249837</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>40.37770192489303</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>40.22391217645067</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.38976645301854</v>
+        <v>32.17877739942679</v>
       </c>
       <c r="C18">
-        <v>24.47667668505569</v>
+        <v>24.24983119451546</v>
       </c>
       <c r="D18">
-        <v>6.314171301918386</v>
+        <v>6.453620698976466</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>77.72372617166987</v>
+        <v>77.50985649831367</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.953309699013104</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>39.63681755643305</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>39.48902062830346</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.21284377855634</v>
+        <v>32.00310140007419</v>
       </c>
       <c r="C19">
-        <v>24.34076868203393</v>
+        <v>24.11493483584255</v>
       </c>
       <c r="D19">
-        <v>6.287513224362186</v>
+        <v>6.427486646392214</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>77.30203737589166</v>
+        <v>77.09229586902303</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.955225501390202</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>39.38762692824326</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>39.24178304704567</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.00940847571023</v>
+        <v>32.79396743071371</v>
       </c>
       <c r="C20">
-        <v>24.9533845650555</v>
+        <v>24.72290297867856</v>
       </c>
       <c r="D20">
-        <v>6.409457616641514</v>
+        <v>6.547009090993063</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>79.20377460470661</v>
+        <v>78.97527230248883</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.946542431315815</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>40.51568166301212</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>40.36074392406987</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.70946865274343</v>
+        <v>35.47267697975084</v>
       </c>
       <c r="C21">
-        <v>27.04492619677069</v>
+        <v>26.79655277903539</v>
       </c>
       <c r="D21">
-        <v>6.863095470104175</v>
+        <v>6.990979868723786</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>85.70919592135714</v>
+        <v>85.41258206158014</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.91598163912225</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>44.47131430378359</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>44.27843454351034</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.51904135526851</v>
+        <v>37.26544356543283</v>
       </c>
       <c r="C22">
-        <v>28.46186146375721</v>
+        <v>28.19896004858985</v>
       </c>
       <c r="D22">
-        <v>7.207982187939195</v>
+        <v>7.327614945731231</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>90.11963103396327</v>
+        <v>89.7713110109064</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.894478952432207</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>47.26220869985494</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>47.03506075319225</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.54687689018204</v>
+        <v>36.30262041069064</v>
       </c>
       <c r="C23">
-        <v>27.69894929361934</v>
+        <v>27.44416587308498</v>
       </c>
       <c r="D23">
-        <v>7.018143158280893</v>
+        <v>7.142431347164722</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>87.74515017751008</v>
+        <v>87.42539439432336</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.906136189325963</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>45.74683005049264</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>45.53921194534662</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.96562922916665</v>
+        <v>32.75050731260352</v>
       </c>
       <c r="C24">
-        <v>24.91966679841646</v>
+        <v>24.68944704454282</v>
       </c>
       <c r="D24">
-        <v>6.402625354889024</v>
+        <v>6.540314251472267</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>79.0990452618509</v>
+        <v>78.87158632925198</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.947023508229221</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>40.453267266887</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>40.29885008956482</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.14287344486357</v>
+        <v>28.95338676993558</v>
       </c>
       <c r="C25">
-        <v>21.99548412431587</v>
+        <v>21.785634841372</v>
       </c>
       <c r="D25">
-        <v>5.860268607369479</v>
+        <v>6.008286505981829</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>70.06936828398194</v>
+        <v>69.97949753032181</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.987337671096062</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>35.17281123380774</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>35.05593134029771</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.08865555379599</v>
+        <v>24.53396924361392</v>
       </c>
       <c r="C2">
-        <v>19.61587716212518</v>
+        <v>13.36949216622561</v>
       </c>
       <c r="D2">
-        <v>5.666466318083132</v>
+        <v>10.09134308801059</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.62214888670462</v>
+        <v>63.59521400178896</v>
       </c>
       <c r="G2">
-        <v>2.015609623643891</v>
+        <v>2.069158183703315</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>31.27650752434064</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.101919947820367</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.07421807578998</v>
+        <v>22.70029668083881</v>
       </c>
       <c r="C3">
-        <v>18.09861612188952</v>
+        <v>12.46230684116042</v>
       </c>
       <c r="D3">
-        <v>5.451766522779757</v>
+        <v>9.654207295370883</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.25651095262629</v>
+        <v>59.78451635303429</v>
       </c>
       <c r="G3">
-        <v>2.034443455115462</v>
+        <v>2.085340622267853</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>28.68946757002379</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.809165276330638</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.7943012066823</v>
+        <v>21.53218255215776</v>
       </c>
       <c r="C4">
-        <v>17.13761507549597</v>
+        <v>11.88580411698754</v>
       </c>
       <c r="D4">
-        <v>5.325192152855654</v>
+        <v>9.38447833612846</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.53452389202792</v>
+        <v>57.39378520439941</v>
       </c>
       <c r="G4">
-        <v>2.045975107499363</v>
+        <v>2.095386155180508</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>27.0714385215682</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.632716668086882</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.26105170148729</v>
+        <v>21.04524301695904</v>
       </c>
       <c r="C5">
-        <v>16.73784595042414</v>
+        <v>11.64572890536965</v>
       </c>
       <c r="D5">
-        <v>5.274571873297595</v>
+        <v>9.27419489684242</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.41357686698419</v>
+        <v>56.40670269051488</v>
       </c>
       <c r="G5">
-        <v>2.050681605493282</v>
+        <v>2.099514679591134</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>26.40266444500681</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.561655155829817</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.17177888563615</v>
+        <v>20.96372011523572</v>
       </c>
       <c r="C6">
-        <v>16.67095227564808</v>
+        <v>11.60554741102027</v>
       </c>
       <c r="D6">
-        <v>5.266215181718532</v>
+        <v>9.255859760238199</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.22670952561206</v>
+        <v>56.24202719792586</v>
       </c>
       <c r="G6">
-        <v>2.051463954135804</v>
+        <v>2.100202524330731</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>26.29099573648472</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.549906941831452</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.78715789887153</v>
+        <v>21.52566008293453</v>
       </c>
       <c r="C7">
-        <v>17.13225757596562</v>
+        <v>11.88258750838408</v>
       </c>
       <c r="D7">
-        <v>5.32450600838229</v>
+        <v>9.382992526052679</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.51945515167952</v>
+        <v>57.38052489697053</v>
       </c>
       <c r="G7">
-        <v>2.04603853319177</v>
+        <v>2.095441683526917</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>27.06245965494148</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.631754870101282</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.40245045473369</v>
+        <v>23.91027344691571</v>
       </c>
       <c r="C8">
-        <v>19.09832429919954</v>
+        <v>13.06057820416683</v>
       </c>
       <c r="D8">
-        <v>5.591105309339668</v>
+        <v>9.940865601278659</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.12452858224029</v>
+        <v>62.29175658400325</v>
       </c>
       <c r="G8">
-        <v>2.022120453053792</v>
+        <v>2.074719892257102</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>30.38931193639035</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.000294911061854</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.23817425740777</v>
+        <v>28.27007216584059</v>
       </c>
       <c r="C9">
-        <v>22.76419802378953</v>
+        <v>15.22954751206241</v>
       </c>
       <c r="D9">
-        <v>6.177296202425007</v>
+        <v>11.02741890140942</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>72.92021769972638</v>
+        <v>71.53517958249928</v>
       </c>
       <c r="G9">
-        <v>1.974069749586165</v>
+        <v>2.034565674896777</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>36.79635089674381</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.749656476152646</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.70546900813641</v>
+        <v>31.31455335604291</v>
       </c>
       <c r="C10">
-        <v>25.42589258012882</v>
+        <v>16.76058194351562</v>
       </c>
       <c r="D10">
-        <v>6.690975975738758</v>
+        <v>11.82833975541752</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>81.15551083170388</v>
+        <v>78.13788800365707</v>
       </c>
       <c r="G10">
-        <v>1.936346012164332</v>
+        <v>2.004709331121385</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>41.67034705270778</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.319002409326101</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.29729790775983</v>
+        <v>32.6755334510227</v>
       </c>
       <c r="C11">
-        <v>26.66003765634635</v>
+        <v>17.45043391432063</v>
       </c>
       <c r="D11">
-        <v>6.959882699837647</v>
+        <v>12.19586162720328</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>84.98835072134111</v>
+        <v>81.11914101663942</v>
       </c>
       <c r="G11">
-        <v>1.918038669441206</v>
+        <v>1.990864223317026</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>44.01513769308221</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.583350016594405</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.90661695894929</v>
+        <v>33.18858971296243</v>
       </c>
       <c r="C12">
-        <v>27.13482773467366</v>
+        <v>17.71145896858658</v>
       </c>
       <c r="D12">
-        <v>7.06926570305817</v>
+        <v>12.3357976127886</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>86.46391378265741</v>
+        <v>82.24705218645116</v>
       </c>
       <c r="G12">
-        <v>1.910856928629523</v>
+        <v>1.985563783469786</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>44.93451773165607</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.684388552463927</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.77500363084143</v>
+        <v>33.07817599943309</v>
       </c>
       <c r="C13">
-        <v>27.03215370475626</v>
+        <v>17.65523794732002</v>
       </c>
       <c r="D13">
-        <v>7.045316628008766</v>
+        <v>12.3056200678935</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>86.14479713976868</v>
+        <v>82.00414002935867</v>
       </c>
       <c r="G13">
-        <v>1.912416543608215</v>
+        <v>1.986708252998592</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>44.73482173282702</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.662583143395613</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.34726274322207</v>
+        <v>32.71778190053136</v>
       </c>
       <c r="C14">
-        <v>26.69891874981663</v>
+        <v>17.47190784122503</v>
       </c>
       <c r="D14">
-        <v>6.968710921506574</v>
+        <v>12.20735686186164</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>85.10917333907504</v>
+        <v>81.21194062643742</v>
       </c>
       <c r="G14">
-        <v>1.917453453398664</v>
+        <v>1.990429436483873</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>44.09004318810111</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.591642584152792</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.08627797440202</v>
+        <v>32.49676644390816</v>
       </c>
       <c r="C15">
-        <v>26.49592875780825</v>
+        <v>17.35961105685252</v>
       </c>
       <c r="D15">
-        <v>6.922869154866354</v>
+        <v>12.14727787871285</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>84.47841769625623</v>
+        <v>80.72663814165301</v>
       </c>
       <c r="G15">
-        <v>1.92050304185782</v>
+        <v>1.992700605702342</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>43.69970842465307</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.54831732210079</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.60206572195095</v>
+        <v>31.2252184065043</v>
       </c>
       <c r="C16">
-        <v>25.34601474081283</v>
+        <v>16.71542507284957</v>
       </c>
       <c r="D16">
-        <v>6.674294813296172</v>
+        <v>11.80440948496192</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>80.90764344354373</v>
+        <v>77.94277932285983</v>
       </c>
       <c r="G16">
-        <v>1.937513042083536</v>
+        <v>2.005607254093277</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>41.5206458048107</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.301847188333964</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.69784273530757</v>
+        <v>30.43974972305248</v>
       </c>
       <c r="C17">
-        <v>24.64891284043954</v>
+        <v>16.31901993091808</v>
       </c>
       <c r="D17">
-        <v>6.532221622243394</v>
+        <v>11.59507599068495</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>78.74597340927001</v>
+        <v>76.2306137825806</v>
       </c>
       <c r="G17">
-        <v>1.947605858249837</v>
+        <v>2.013444898859489</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>40.22391217645067</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.152115951297978</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.17877739942679</v>
+        <v>29.98563157455758</v>
       </c>
       <c r="C18">
-        <v>24.24983119451546</v>
+        <v>16.09034135818822</v>
       </c>
       <c r="D18">
-        <v>6.453620698976466</v>
+        <v>11.47494913783687</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>77.50985649831367</v>
+        <v>75.24355312414524</v>
       </c>
       <c r="G18">
-        <v>1.953309699013104</v>
+        <v>2.017929524197255</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>39.48902062830346</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.066484845776399</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.00310140007419</v>
+        <v>29.83144326132001</v>
       </c>
       <c r="C19">
-        <v>24.11493483584255</v>
+        <v>16.01277847074514</v>
       </c>
       <c r="D19">
-        <v>6.427486646392214</v>
+        <v>11.43431576528865</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>77.09229586902303</v>
+        <v>74.90890499149421</v>
       </c>
       <c r="G19">
-        <v>1.955225501390202</v>
+        <v>2.019444458416264</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>39.24178304704567</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.037571723900752</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.79396743071371</v>
+        <v>30.52359875697794</v>
       </c>
       <c r="C20">
-        <v>24.72290297867856</v>
+        <v>16.36128312499182</v>
       </c>
       <c r="D20">
-        <v>6.547009090993063</v>
+        <v>11.6173293706651</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>78.97527230248883</v>
+        <v>76.41309761033706</v>
       </c>
       <c r="G20">
-        <v>1.946542431315815</v>
+        <v>2.012613117232475</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>40.36074392406987</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.168003332977353</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.47267697975084</v>
+        <v>32.82369091939722</v>
       </c>
       <c r="C21">
-        <v>26.79655277903539</v>
+        <v>17.525755121799</v>
       </c>
       <c r="D21">
-        <v>6.990979868723786</v>
+        <v>12.23619552916654</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>85.41258206158014</v>
+        <v>81.44463592505534</v>
       </c>
       <c r="G21">
-        <v>1.91598163912225</v>
+        <v>1.989338177688903</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>44.27843454351034</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.612452507922743</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.26544356543283</v>
+        <v>34.31416328187637</v>
       </c>
       <c r="C22">
-        <v>28.19896004858985</v>
+        <v>18.28608492670532</v>
       </c>
       <c r="D22">
-        <v>7.327614945731231</v>
+        <v>12.64532379260776</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>89.7713110109064</v>
+        <v>84.72858182940855</v>
       </c>
       <c r="G22">
-        <v>1.894478952432207</v>
+        <v>1.973778227701334</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>47.03506075319225</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.908506381661535</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.30262041069064</v>
+        <v>33.51939031339759</v>
       </c>
       <c r="C23">
-        <v>27.44416587308498</v>
+        <v>17.88005264556623</v>
       </c>
       <c r="D23">
-        <v>7.142431347164722</v>
+        <v>12.42641110281746</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>87.42539439432336</v>
+        <v>82.97538437298229</v>
       </c>
       <c r="G23">
-        <v>1.906136189325963</v>
+        <v>1.98212252126437</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>45.53921194534662</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.749913952914607</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.75050731260352</v>
+        <v>30.48569860727059</v>
       </c>
       <c r="C24">
-        <v>24.68944704454282</v>
+        <v>16.34217841824162</v>
       </c>
       <c r="D24">
-        <v>6.540314251472267</v>
+        <v>11.60726794870524</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>78.87158632925198</v>
+        <v>76.33060528150143</v>
       </c>
       <c r="G24">
-        <v>1.947023508229221</v>
+        <v>2.012989230750372</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>40.29885008956482</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.160819253493797</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.95338676993558</v>
+        <v>27.12144895157654</v>
       </c>
       <c r="C25">
-        <v>21.785634841372</v>
+        <v>14.65574299399329</v>
       </c>
       <c r="D25">
-        <v>6.008286505981829</v>
+        <v>10.733696048816</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.97949753032181</v>
+        <v>69.07245366389496</v>
       </c>
       <c r="G25">
-        <v>1.987337671096062</v>
+        <v>2.045436996209587</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>35.05593134029771</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.543925980119756</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_line/loading_percent.xlsx
@@ -421,43 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.53396924361392</v>
+        <v>13.7404063912835</v>
       </c>
       <c r="C2">
-        <v>13.36949216622561</v>
+        <v>9.039840575367581</v>
       </c>
       <c r="D2">
-        <v>10.09134308801059</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>4.859149944006457</v>
       </c>
       <c r="F2">
-        <v>63.59521400178896</v>
+        <v>22.98393645241575</v>
       </c>
       <c r="G2">
-        <v>2.069158183703315</v>
+        <v>2.101379930308835</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>15.93750193238515</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>8.101919947820367</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
+        <v>12.55639158028654</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>12.72862537673023</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +456,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.70029668083881</v>
+        <v>12.79764243107159</v>
       </c>
       <c r="C3">
-        <v>12.46230684116042</v>
+        <v>8.403423281342253</v>
       </c>
       <c r="D3">
-        <v>9.654207295370883</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>4.816172769891701</v>
       </c>
       <c r="F3">
-        <v>59.78451635303429</v>
+        <v>22.53335408816491</v>
       </c>
       <c r="G3">
-        <v>2.085340622267853</v>
+        <v>2.10769256922962</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>16.00447814739357</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>7.809165276330638</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
+        <v>11.71710282861725</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>12.96813958244571</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +491,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.53218255215776</v>
+        <v>12.18575098277696</v>
       </c>
       <c r="C4">
-        <v>11.88580411698754</v>
+        <v>7.991535750514799</v>
       </c>
       <c r="D4">
-        <v>9.38447833612846</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>4.789476811787661</v>
       </c>
       <c r="F4">
-        <v>57.39378520439941</v>
+        <v>22.27623425664666</v>
       </c>
       <c r="G4">
-        <v>2.095386155180508</v>
+        <v>2.111680755130337</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+        <v>16.05990482267758</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>7.632716668086882</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
+        <v>11.17311422807725</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>13.1182145533097</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.04524301695904</v>
+        <v>11.92803000638288</v>
       </c>
       <c r="C5">
-        <v>11.64572890536965</v>
+        <v>7.818326435495374</v>
       </c>
       <c r="D5">
-        <v>9.27419489684242</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>4.778526019154442</v>
       </c>
       <c r="F5">
-        <v>56.40670269051488</v>
+        <v>22.17634006836086</v>
       </c>
       <c r="G5">
-        <v>2.099514679591134</v>
+        <v>2.113335037703624</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>16.08591492616191</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>7.561655155829817</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
+        <v>10.94418018825241</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>13.18015917067866</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +561,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.96372011523572</v>
+        <v>11.88472823468113</v>
       </c>
       <c r="C6">
-        <v>11.60554741102027</v>
+        <v>7.789239913962223</v>
       </c>
       <c r="D6">
-        <v>9.255859760238199</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>4.776703462207883</v>
       </c>
       <c r="F6">
-        <v>56.24202719792586</v>
+        <v>22.16004651773527</v>
       </c>
       <c r="G6">
-        <v>2.100202524330731</v>
+        <v>2.11361150956304</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>16.09043567911116</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>7.549906941831452</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
+        <v>10.90572644047429</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13.19049347330712</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +596,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.52566008293453</v>
+        <v>12.18230924283167</v>
       </c>
       <c r="C7">
-        <v>11.88258750838408</v>
+        <v>7.989221563026081</v>
       </c>
       <c r="D7">
-        <v>9.382992526052679</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>4.789329409734167</v>
       </c>
       <c r="F7">
-        <v>57.38052489697053</v>
+        <v>22.27486732375273</v>
       </c>
       <c r="G7">
-        <v>2.095441683526917</v>
+        <v>2.111702946587835</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>16.06024196830506</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>7.631754870101282</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
+        <v>11.17005617486014</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.11904673092251</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +631,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.91027344691571</v>
+        <v>13.42215756474103</v>
       </c>
       <c r="C8">
-        <v>13.06057820416683</v>
+        <v>8.824757501758491</v>
       </c>
       <c r="D8">
-        <v>9.940865601278659</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>4.844398510987169</v>
       </c>
       <c r="F8">
-        <v>62.29175658400325</v>
+        <v>22.82450766230343</v>
       </c>
       <c r="G8">
-        <v>2.074719892257102</v>
+        <v>2.10353376747483</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>15.95752082908536</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>8.000294911061854</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
+        <v>12.27292386060514</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>12.81060344340487</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +666,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.27007216584059</v>
+        <v>15.59440561308439</v>
       </c>
       <c r="C9">
-        <v>15.22954751206241</v>
+        <v>10.29801230277481</v>
       </c>
       <c r="D9">
-        <v>11.02741890140942</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>4.949716900134835</v>
       </c>
       <c r="F9">
-        <v>71.53517958249928</v>
+        <v>24.05798177991868</v>
       </c>
       <c r="G9">
-        <v>2.034565674896777</v>
+        <v>2.088363356355081</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>15.87759361404617</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>8.749656476152646</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
+        <v>14.21058059732573</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>12.22819118131752</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +701,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.31455335604291</v>
+        <v>17.03670034337098</v>
       </c>
       <c r="C10">
-        <v>16.76058194351562</v>
+        <v>11.28320335121476</v>
       </c>
       <c r="D10">
-        <v>11.82833975541752</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>5.02517153243886</v>
       </c>
       <c r="F10">
-        <v>78.13788800365707</v>
+        <v>25.05924794388595</v>
       </c>
       <c r="G10">
-        <v>2.004709331121385</v>
+        <v>2.077674422012485</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>15.90428833006317</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>9.319002409326101</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
+        <v>15.50054957141224</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.81181809943218</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +736,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.6755334510227</v>
+        <v>17.66045141543655</v>
       </c>
       <c r="C11">
-        <v>17.45043391432063</v>
+        <v>11.7111119724761</v>
       </c>
       <c r="D11">
-        <v>12.19586162720328</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>5.059021671770421</v>
       </c>
       <c r="F11">
-        <v>81.11914101663942</v>
+        <v>25.53530861948167</v>
       </c>
       <c r="G11">
-        <v>1.990864223317026</v>
+        <v>2.072896317244507</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>15.93750731385393</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>9.583350016594405</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
+        <v>16.05923301063536</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>11.62439270662269</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +771,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.18858971296243</v>
+        <v>17.89208066782736</v>
       </c>
       <c r="C12">
-        <v>17.71145896858658</v>
+        <v>11.87030911482752</v>
       </c>
       <c r="D12">
-        <v>12.3357976127886</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>5.071766893486325</v>
       </c>
       <c r="F12">
-        <v>82.24705218645116</v>
+        <v>25.71853148694047</v>
       </c>
       <c r="G12">
-        <v>1.985563783469786</v>
+        <v>2.071097795129887</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>15.9533301633403</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>9.684388552463927</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
+        <v>16.26682241282154</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>11.55366036781162</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +806,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.07817599943309</v>
+        <v>17.84239715882709</v>
       </c>
       <c r="C13">
-        <v>17.65523794732002</v>
+        <v>11.836148408379</v>
       </c>
       <c r="D13">
-        <v>12.3056200678935</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>5.069025307420167</v>
       </c>
       <c r="F13">
-        <v>82.00414002935867</v>
+        <v>25.67894010263373</v>
       </c>
       <c r="G13">
-        <v>1.986708252998592</v>
+        <v>2.071484678404643</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>15.94977474805512</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>9.662583143395613</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
+        <v>16.22228975255318</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>11.5688838257858</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +841,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.71778190053136</v>
+        <v>17.67959883917157</v>
       </c>
       <c r="C14">
-        <v>17.47190784122503</v>
+        <v>11.7242657643662</v>
       </c>
       <c r="D14">
-        <v>12.20735686186164</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>5.060071720636347</v>
       </c>
       <c r="F14">
-        <v>81.21194062643742</v>
+        <v>25.55032340956312</v>
       </c>
       <c r="G14">
-        <v>1.990429436483873</v>
+        <v>2.072748142180537</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+        <v>15.93874283283012</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>9.591642584152792</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
+        <v>16.0763906812548</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11.61856893377617</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +876,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.49676644390816</v>
+        <v>17.57928726654904</v>
       </c>
       <c r="C15">
-        <v>17.35961105685252</v>
+        <v>11.65536640837817</v>
       </c>
       <c r="D15">
-        <v>12.14727787871285</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>5.05457773162943</v>
       </c>
       <c r="F15">
-        <v>80.72663814165301</v>
+        <v>25.4719258161408</v>
       </c>
       <c r="G15">
-        <v>1.992700605702342</v>
+        <v>2.073523422323998</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+        <v>15.93241424544226</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>9.54831732210079</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
+        <v>15.98650828707396</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11.64903261069245</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +911,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.2252184065043</v>
+        <v>16.99529249121451</v>
       </c>
       <c r="C16">
-        <v>16.71542507284957</v>
+        <v>11.25483678227962</v>
       </c>
       <c r="D16">
-        <v>11.80440948496192</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>5.022949376982352</v>
       </c>
       <c r="F16">
-        <v>77.94277932285983</v>
+        <v>25.02854937243561</v>
       </c>
       <c r="G16">
-        <v>2.005607254093277</v>
+        <v>2.077988271964284</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+        <v>15.90255960849667</v>
       </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>9.301847188333964</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
+        <v>15.46347838862865</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.82410304630318</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +946,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.43974972305248</v>
+        <v>16.62879984263146</v>
       </c>
       <c r="C17">
-        <v>16.31901993091808</v>
+        <v>11.00398473131658</v>
       </c>
       <c r="D17">
-        <v>11.59507599068495</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>5.003421336640311</v>
       </c>
       <c r="F17">
-        <v>76.2306137825806</v>
+        <v>24.76181438447547</v>
       </c>
       <c r="G17">
-        <v>2.013444898859489</v>
+        <v>2.080748031444408</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+        <v>15.8897931042718</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>9.152115951297978</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
+        <v>15.1354622252762</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.93198113552749</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +981,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.98563157455758</v>
+        <v>16.41495238405075</v>
       </c>
       <c r="C18">
-        <v>16.09034135818822</v>
+        <v>10.85778982388578</v>
       </c>
       <c r="D18">
-        <v>11.47494913783687</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>4.992144933411923</v>
       </c>
       <c r="F18">
-        <v>75.24355312414524</v>
+        <v>24.61033299490624</v>
       </c>
       <c r="G18">
-        <v>2.017929524197255</v>
+        <v>2.08234339378824</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
+        <v>15.88442090426377</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>9.066484845776399</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
+        <v>14.94414360811996</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.99421936478436</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1016,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.83144326132001</v>
+        <v>16.34202096575862</v>
       </c>
       <c r="C19">
-        <v>16.01277847074514</v>
+        <v>10.80796036699538</v>
       </c>
       <c r="D19">
-        <v>11.43431576528865</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>4.988319464488726</v>
       </c>
       <c r="F19">
-        <v>74.90890499149421</v>
+        <v>24.55937716622785</v>
       </c>
       <c r="G19">
-        <v>2.019444458416264</v>
+        <v>2.082884971368233</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
+        <v>15.88293401568808</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>9.037571723900752</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
+        <v>14.87890871231156</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12.01532601492996</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1051,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.52359875697794</v>
+        <v>16.66812876015253</v>
       </c>
       <c r="C20">
-        <v>16.36128312499182</v>
+        <v>11.03088568952483</v>
       </c>
       <c r="D20">
-        <v>11.6173293706651</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>5.005504760050075</v>
       </c>
       <c r="F20">
-        <v>76.41309761033706</v>
+        <v>24.79000834548601</v>
       </c>
       <c r="G20">
-        <v>2.012613117232475</v>
+        <v>2.08045342912129</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
+        <v>15.89094662283151</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>9.168003332977353</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
+        <v>15.17065410459809</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11.9204780139078</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1086,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.82369091939722</v>
+        <v>17.72754006146355</v>
       </c>
       <c r="C21">
-        <v>17.525755121799</v>
+        <v>11.75720496807118</v>
       </c>
       <c r="D21">
-        <v>12.23619552916654</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>5.062703627277308</v>
       </c>
       <c r="F21">
-        <v>81.44463592505534</v>
+        <v>25.58802126626447</v>
       </c>
       <c r="G21">
-        <v>1.989338177688903</v>
+        <v>2.072376748740647</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+        <v>15.94189343222769</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>9.612452507922743</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
+        <v>16.11935196294125</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.60396901975412</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1121,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.31416328187637</v>
+        <v>18.39331964232715</v>
       </c>
       <c r="C22">
-        <v>18.28608492670532</v>
+        <v>12.21536426435939</v>
       </c>
       <c r="D22">
-        <v>12.64532379260776</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>5.09965828277991</v>
       </c>
       <c r="F22">
-        <v>84.72858182940855</v>
+        <v>26.12675855537695</v>
       </c>
       <c r="G22">
-        <v>1.973778227701334</v>
+        <v>2.067160696965025</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
+        <v>15.99419689404963</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>9.908506381661535</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
+        <v>16.71626727123225</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.39849787465391</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1156,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.51939031339759</v>
+        <v>18.04038721735281</v>
       </c>
       <c r="C23">
-        <v>17.88005264556623</v>
+        <v>11.9723241050061</v>
       </c>
       <c r="D23">
-        <v>12.42641110281746</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>5.079975600146192</v>
       </c>
       <c r="F23">
-        <v>82.97538437298229</v>
+        <v>25.83765306440493</v>
       </c>
       <c r="G23">
-        <v>1.98212252126437</v>
+        <v>2.069939333037619</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
+        <v>15.96447128145494</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>9.749913952914607</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
+        <v>16.39977172533228</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.50805011567014</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1191,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.48569860727059</v>
+        <v>16.65035796156074</v>
       </c>
       <c r="C24">
-        <v>16.34217841824162</v>
+        <v>11.01872992866042</v>
       </c>
       <c r="D24">
-        <v>11.60726794870524</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>5.004562998052404</v>
       </c>
       <c r="F24">
-        <v>76.33060528150143</v>
+        <v>24.77725603607132</v>
       </c>
       <c r="G24">
-        <v>2.012989230750372</v>
+        <v>2.080586591512965</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
+        <v>15.89041900506702</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>9.160819253493797</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
+        <v>15.15475238892673</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>11.92567789389123</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1226,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.12144895157654</v>
+        <v>15.03405851838536</v>
       </c>
       <c r="C25">
-        <v>14.65574299399329</v>
+        <v>9.916795665006017</v>
       </c>
       <c r="D25">
-        <v>10.733696048816</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>4.921542524353825</v>
       </c>
       <c r="F25">
-        <v>69.07245366389496</v>
+        <v>23.70758422696375</v>
       </c>
       <c r="G25">
-        <v>2.045436996209587</v>
+        <v>2.092382478901621</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
+        <v>15.88505544919123</v>
       </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>8.543925980119756</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
+        <v>13.71013454670556</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>12.38356146581971</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.7404063912835</v>
+        <v>11.02949592498183</v>
       </c>
       <c r="C2">
-        <v>9.039840575367581</v>
+        <v>6.534646397226478</v>
       </c>
       <c r="D2">
-        <v>4.859149944006457</v>
+        <v>5.952329178425861</v>
       </c>
       <c r="F2">
-        <v>22.98393645241575</v>
+        <v>29.60148885121266</v>
       </c>
       <c r="G2">
-        <v>2.101379930308835</v>
+        <v>3.664825440854381</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.93750193238515</v>
+        <v>23.63300401273158</v>
       </c>
       <c r="K2">
-        <v>12.55639158028654</v>
+        <v>11.41412099186364</v>
       </c>
       <c r="N2">
-        <v>12.72862537673023</v>
+        <v>19.39942542237698</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.79764243107159</v>
+        <v>10.76789784190014</v>
       </c>
       <c r="C3">
-        <v>8.403423281342253</v>
+        <v>6.334895046498746</v>
       </c>
       <c r="D3">
-        <v>4.816172769891701</v>
+        <v>5.93506451983622</v>
       </c>
       <c r="F3">
-        <v>22.53335408816491</v>
+        <v>29.61492478565791</v>
       </c>
       <c r="G3">
-        <v>2.10769256922962</v>
+        <v>3.66714188255632</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.00447814739357</v>
+        <v>23.71487049766979</v>
       </c>
       <c r="K3">
-        <v>11.71710282861725</v>
+        <v>11.24090438113097</v>
       </c>
       <c r="N3">
-        <v>12.96813958244571</v>
+        <v>19.46779707327449</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.18575098277696</v>
+        <v>10.6067064918257</v>
       </c>
       <c r="C4">
-        <v>7.991535750514799</v>
+        <v>6.210928206341651</v>
       </c>
       <c r="D4">
-        <v>4.789476811787661</v>
+        <v>5.924314909497383</v>
       </c>
       <c r="F4">
-        <v>22.27623425664666</v>
+        <v>29.63145243576174</v>
       </c>
       <c r="G4">
-        <v>2.111680755130337</v>
+        <v>3.668639123213434</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.05990482267758</v>
+        <v>23.77005964855058</v>
       </c>
       <c r="K4">
-        <v>11.17311422807725</v>
+        <v>11.1359417467182</v>
       </c>
       <c r="N4">
-        <v>13.1182145533097</v>
+        <v>19.51170662294467</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.92803000638288</v>
+        <v>10.54098092910881</v>
       </c>
       <c r="C5">
-        <v>7.818326435495374</v>
+        <v>6.160167599802673</v>
       </c>
       <c r="D5">
-        <v>4.778526019154442</v>
+        <v>5.919897850493808</v>
       </c>
       <c r="F5">
-        <v>22.17634006836086</v>
+        <v>29.64026528884904</v>
       </c>
       <c r="G5">
-        <v>2.113335037703624</v>
+        <v>3.669268165634274</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.08591492616191</v>
+        <v>23.79378454918449</v>
       </c>
       <c r="K5">
-        <v>10.94418018825241</v>
+        <v>11.09357480768847</v>
       </c>
       <c r="N5">
-        <v>13.18015917067866</v>
+        <v>19.53008664718057</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.88472823468113</v>
+        <v>10.5300680237584</v>
       </c>
       <c r="C6">
-        <v>7.789239913962223</v>
+        <v>6.151726847544135</v>
       </c>
       <c r="D6">
-        <v>4.776703462207883</v>
+        <v>5.919162224725103</v>
       </c>
       <c r="F6">
-        <v>22.16004651773527</v>
+        <v>29.64185400694687</v>
       </c>
       <c r="G6">
-        <v>2.11361150956304</v>
+        <v>3.66937376125172</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.09043567911116</v>
+        <v>23.79779854546547</v>
       </c>
       <c r="K6">
-        <v>10.90572644047429</v>
+        <v>11.08656596679512</v>
       </c>
       <c r="N6">
-        <v>13.19049347330712</v>
+        <v>19.53316806364162</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.18230924283167</v>
+        <v>10.60582011051748</v>
       </c>
       <c r="C7">
-        <v>7.989221563026081</v>
+        <v>6.210244494511008</v>
       </c>
       <c r="D7">
-        <v>4.789329409734167</v>
+        <v>5.924255486034845</v>
       </c>
       <c r="F7">
-        <v>22.27486732375273</v>
+        <v>29.63156288252911</v>
       </c>
       <c r="G7">
-        <v>2.111702946587835</v>
+        <v>3.668647530073657</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.06024196830506</v>
+        <v>23.77037461494124</v>
       </c>
       <c r="K7">
-        <v>11.17005617486014</v>
+        <v>11.13536865322479</v>
       </c>
       <c r="N7">
-        <v>13.11904673092251</v>
+        <v>19.51195253055613</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.42215756474103</v>
+        <v>10.93947646089402</v>
       </c>
       <c r="C8">
-        <v>8.824757501758491</v>
+        <v>6.466097205693705</v>
       </c>
       <c r="D8">
-        <v>4.844398510987169</v>
+        <v>5.946407838227123</v>
       </c>
       <c r="F8">
-        <v>22.82450766230343</v>
+        <v>29.60440153572828</v>
       </c>
       <c r="G8">
-        <v>2.10353376747483</v>
+        <v>3.665608633999325</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.95752082908536</v>
+        <v>23.66020805878046</v>
       </c>
       <c r="K8">
-        <v>12.27292386060514</v>
+        <v>11.35414040687754</v>
       </c>
       <c r="N8">
-        <v>12.81060344340487</v>
+        <v>19.42260046054172</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.59440561308439</v>
+        <v>11.58487833181121</v>
       </c>
       <c r="C9">
-        <v>10.29801230277481</v>
+        <v>6.953761977664416</v>
       </c>
       <c r="D9">
-        <v>4.949716900134835</v>
+        <v>5.988624366722171</v>
       </c>
       <c r="F9">
-        <v>24.05798177991868</v>
+        <v>29.6169373720515</v>
       </c>
       <c r="G9">
-        <v>2.088363356355081</v>
+        <v>3.660241148267918</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.87759361404617</v>
+        <v>23.4833647423626</v>
       </c>
       <c r="K9">
-        <v>14.21058059732573</v>
+        <v>11.79174085446894</v>
       </c>
       <c r="N9">
-        <v>12.22819118131752</v>
+        <v>19.26262053550528</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.03670034337098</v>
+        <v>12.04809858951048</v>
       </c>
       <c r="C10">
-        <v>11.28320335121476</v>
+        <v>7.299089151912932</v>
       </c>
       <c r="D10">
-        <v>5.02517153243886</v>
+        <v>6.018840376822291</v>
       </c>
       <c r="F10">
-        <v>25.05924794388595</v>
+        <v>29.66634026391367</v>
       </c>
       <c r="G10">
-        <v>2.077674422012485</v>
+        <v>3.65665449381408</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.90428833006317</v>
+        <v>23.37751030100131</v>
       </c>
       <c r="K10">
-        <v>15.50054957141224</v>
+        <v>12.1152063093897</v>
       </c>
       <c r="N10">
-        <v>11.81181809943218</v>
+        <v>19.15427765092197</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.66045141543655</v>
+        <v>12.25538827372165</v>
       </c>
       <c r="C11">
-        <v>11.7111119724761</v>
+        <v>7.45257157253632</v>
       </c>
       <c r="D11">
-        <v>5.059021671770421</v>
+        <v>6.032401129036549</v>
       </c>
       <c r="F11">
-        <v>25.53530861948167</v>
+        <v>29.69753072400184</v>
       </c>
       <c r="G11">
-        <v>2.072896317244507</v>
+        <v>3.655099479519545</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.93750731385393</v>
+        <v>23.3346188280399</v>
       </c>
       <c r="K11">
-        <v>16.05923301063536</v>
+        <v>12.26210797595586</v>
       </c>
       <c r="N11">
-        <v>11.62439270662269</v>
+        <v>19.10696565136973</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.89208066782736</v>
+        <v>12.33330956635568</v>
       </c>
       <c r="C12">
-        <v>11.87030911482752</v>
+        <v>7.51011411855426</v>
       </c>
       <c r="D12">
-        <v>5.071766893486325</v>
+        <v>6.037508667566159</v>
       </c>
       <c r="F12">
-        <v>25.71853148694047</v>
+        <v>29.71059174006479</v>
       </c>
       <c r="G12">
-        <v>2.071097795129887</v>
+        <v>3.654521583694201</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.9533301633403</v>
+        <v>23.31913665353585</v>
       </c>
       <c r="K12">
-        <v>16.26682241282154</v>
+        <v>12.31764616975879</v>
       </c>
       <c r="N12">
-        <v>11.55366036781162</v>
+        <v>19.08933213816894</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.84239715882709</v>
+        <v>12.31655461707183</v>
       </c>
       <c r="C13">
-        <v>11.836148408379</v>
+        <v>7.497747880217549</v>
       </c>
       <c r="D13">
-        <v>5.069025307420167</v>
+        <v>6.036409913365187</v>
       </c>
       <c r="F13">
-        <v>25.67894010263373</v>
+        <v>29.70772330140881</v>
       </c>
       <c r="G13">
-        <v>2.071484678404643</v>
+        <v>3.654645557602363</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.94977474805512</v>
+        <v>23.32243717028382</v>
       </c>
       <c r="K13">
-        <v>16.22228975255318</v>
+        <v>12.30568989854397</v>
       </c>
       <c r="N13">
-        <v>11.5688838257858</v>
+        <v>19.09311728648818</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.67959883917157</v>
+        <v>12.26181086971427</v>
       </c>
       <c r="C14">
-        <v>11.7242657643662</v>
+        <v>7.457317531277857</v>
       </c>
       <c r="D14">
-        <v>5.060071720636347</v>
+        <v>6.032821889057077</v>
       </c>
       <c r="F14">
-        <v>25.55032340956312</v>
+        <v>29.69858023833508</v>
       </c>
       <c r="G14">
-        <v>2.072748142180537</v>
+        <v>3.655051716464138</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.93874283283012</v>
+        <v>23.33332985278919</v>
       </c>
       <c r="K14">
-        <v>16.0763906812548</v>
+        <v>12.26667925488503</v>
       </c>
       <c r="N14">
-        <v>11.61856893377617</v>
+        <v>19.10550927705206</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.57928726654904</v>
+        <v>12.22820157608072</v>
       </c>
       <c r="C15">
-        <v>11.65536640837817</v>
+        <v>7.432475865318679</v>
       </c>
       <c r="D15">
-        <v>5.05457773162943</v>
+        <v>6.030620491364952</v>
       </c>
       <c r="F15">
-        <v>25.4719258161408</v>
+        <v>29.69314248564233</v>
       </c>
       <c r="G15">
-        <v>2.073523422323998</v>
+        <v>3.655301925396363</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.93241424544226</v>
+        <v>23.34010098954071</v>
       </c>
       <c r="K15">
-        <v>15.98650828707396</v>
+        <v>12.24277074852497</v>
       </c>
       <c r="N15">
-        <v>11.64903261069245</v>
+        <v>19.11313648225522</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.99529249121451</v>
+        <v>12.03447557524302</v>
       </c>
       <c r="C16">
-        <v>11.25483678227962</v>
+        <v>7.288980918146986</v>
       </c>
       <c r="D16">
-        <v>5.022949376982352</v>
+        <v>6.017950342427902</v>
       </c>
       <c r="F16">
-        <v>25.02854937243561</v>
+        <v>29.66447702432418</v>
       </c>
       <c r="G16">
-        <v>2.077988271964284</v>
+        <v>3.656757653636213</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.90255960849667</v>
+        <v>23.38041952397106</v>
       </c>
       <c r="K16">
-        <v>15.46347838862865</v>
+        <v>12.1055962662065</v>
       </c>
       <c r="N16">
-        <v>11.82410304630318</v>
+        <v>19.1574092059009</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.62879984263146</v>
+        <v>11.91469222190779</v>
       </c>
       <c r="C17">
-        <v>11.00398473131658</v>
+        <v>7.199983248496333</v>
       </c>
       <c r="D17">
-        <v>5.003421336640311</v>
+        <v>6.010129558649938</v>
       </c>
       <c r="F17">
-        <v>24.76181438447547</v>
+        <v>29.64912218348846</v>
       </c>
       <c r="G17">
-        <v>2.080748031444408</v>
+        <v>3.657670267392246</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.8897931042718</v>
+        <v>23.40650372053008</v>
       </c>
       <c r="K17">
-        <v>15.1354622252762</v>
+        <v>12.02134175515319</v>
       </c>
       <c r="N17">
-        <v>11.93198113552749</v>
+        <v>19.18507367345979</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.41495238405075</v>
+        <v>11.84547749187413</v>
       </c>
       <c r="C18">
-        <v>10.85778982388578</v>
+        <v>7.148457613953925</v>
       </c>
       <c r="D18">
-        <v>4.992144933411923</v>
+        <v>6.005613933310613</v>
       </c>
       <c r="F18">
-        <v>24.61033299490624</v>
+        <v>29.64111126368639</v>
       </c>
       <c r="G18">
-        <v>2.08234339378824</v>
+        <v>3.658202389445024</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.88442090426377</v>
+        <v>23.42200178145536</v>
       </c>
       <c r="K18">
-        <v>14.94414360811996</v>
+        <v>11.97286097453916</v>
       </c>
       <c r="N18">
-        <v>11.99421936478436</v>
+        <v>19.20117139673198</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.34202096575862</v>
+        <v>11.82199044785472</v>
       </c>
       <c r="C19">
-        <v>10.80796036699538</v>
+        <v>7.130956017366365</v>
       </c>
       <c r="D19">
-        <v>4.988319464488726</v>
+        <v>6.004082078504182</v>
       </c>
       <c r="F19">
-        <v>24.55937716622785</v>
+        <v>29.63853995929317</v>
       </c>
       <c r="G19">
-        <v>2.082884971368233</v>
+        <v>3.658383797020858</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.88293401568808</v>
+        <v>23.42733409764954</v>
       </c>
       <c r="K19">
-        <v>14.87890871231156</v>
+        <v>11.95644452258325</v>
       </c>
       <c r="N19">
-        <v>12.01532601492996</v>
+        <v>19.20665376967779</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.66812876015253</v>
+        <v>11.927476938069</v>
       </c>
       <c r="C20">
-        <v>11.03088568952483</v>
+        <v>7.209492478380159</v>
       </c>
       <c r="D20">
-        <v>5.005504760050075</v>
+        <v>6.010963894457856</v>
       </c>
       <c r="F20">
-        <v>24.79000834548601</v>
+        <v>29.65067180643274</v>
       </c>
       <c r="G20">
-        <v>2.08045342912129</v>
+        <v>3.657572372225121</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.89094662283151</v>
+        <v>23.4036757467198</v>
       </c>
       <c r="K20">
-        <v>15.17065410459809</v>
+        <v>12.03031324777074</v>
       </c>
       <c r="N20">
-        <v>11.9204780139078</v>
+        <v>19.18210951801472</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.72754006146355</v>
+        <v>12.27790665360286</v>
       </c>
       <c r="C21">
-        <v>11.75720496807118</v>
+        <v>7.469209029644295</v>
       </c>
       <c r="D21">
-        <v>5.062703627277308</v>
+        <v>6.03387653700046</v>
       </c>
       <c r="F21">
-        <v>25.58802126626447</v>
+        <v>29.70123189257642</v>
       </c>
       <c r="G21">
-        <v>2.072376748740647</v>
+        <v>3.654932120913046</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.94189343222769</v>
+        <v>23.33010975950367</v>
       </c>
       <c r="K21">
-        <v>16.11935196294125</v>
+        <v>12.27814050657259</v>
       </c>
       <c r="N21">
-        <v>11.60396901975412</v>
+        <v>19.1018617920199</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.39331964232715</v>
+        <v>12.50354886564696</v>
       </c>
       <c r="C22">
-        <v>12.21536426435939</v>
+        <v>7.635557091368154</v>
       </c>
       <c r="D22">
-        <v>5.09965828277991</v>
+        <v>6.048689763994513</v>
       </c>
       <c r="F22">
-        <v>26.12675855537695</v>
+        <v>29.74155830117429</v>
       </c>
       <c r="G22">
-        <v>2.067160696965025</v>
+        <v>3.653270388300629</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.99419689404963</v>
+        <v>23.28646081056665</v>
       </c>
       <c r="K22">
-        <v>16.71626727123225</v>
+        <v>12.43955956565449</v>
       </c>
       <c r="N22">
-        <v>11.39849787465391</v>
+        <v>19.05106137622593</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.04038721735281</v>
+        <v>12.38345429177897</v>
       </c>
       <c r="C23">
-        <v>11.9723241050061</v>
+        <v>7.547102293047216</v>
       </c>
       <c r="D23">
-        <v>5.079975600146192</v>
+        <v>6.040798797265746</v>
       </c>
       <c r="F23">
-        <v>25.83765306440493</v>
+        <v>29.71937056046982</v>
       </c>
       <c r="G23">
-        <v>2.069939333037619</v>
+        <v>3.654151464984674</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.96447128145494</v>
+        <v>23.30935063506469</v>
       </c>
       <c r="K23">
-        <v>16.39977172533228</v>
+        <v>12.35347524219442</v>
       </c>
       <c r="N23">
-        <v>11.50805011567014</v>
+        <v>19.07802432284502</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.65035796156074</v>
+        <v>11.92169805081342</v>
       </c>
       <c r="C24">
-        <v>11.01872992866042</v>
+        <v>7.205194471357035</v>
       </c>
       <c r="D24">
-        <v>5.004562998052404</v>
+        <v>6.010586751419498</v>
       </c>
       <c r="F24">
-        <v>24.77725603607132</v>
+        <v>29.64996867736639</v>
       </c>
       <c r="G24">
-        <v>2.080586591512965</v>
+        <v>3.65761660742468</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.89041900506702</v>
+        <v>23.40495271045352</v>
       </c>
       <c r="K24">
-        <v>15.15475238892673</v>
+        <v>12.02625736172737</v>
       </c>
       <c r="N24">
-        <v>11.92567789389123</v>
+        <v>19.18344901120749</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.03405851838536</v>
+        <v>11.4118242719515</v>
       </c>
       <c r="C25">
-        <v>9.916795665006017</v>
+        <v>6.823818575234708</v>
       </c>
       <c r="D25">
-        <v>4.921542524353825</v>
+        <v>5.977340318204705</v>
       </c>
       <c r="F25">
-        <v>23.70758422696375</v>
+        <v>29.60648808966737</v>
       </c>
       <c r="G25">
-        <v>2.092382478901621</v>
+        <v>3.661630248792819</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.88505544919123</v>
+        <v>23.52699093163784</v>
       </c>
       <c r="K25">
-        <v>13.71013454670556</v>
+        <v>11.67277991773348</v>
       </c>
       <c r="N25">
-        <v>12.38356146581971</v>
+        <v>19.30427783391555</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.02949592498183</v>
+        <v>13.74040639128353</v>
       </c>
       <c r="C2">
-        <v>6.534646397226478</v>
+        <v>9.039840575367561</v>
       </c>
       <c r="D2">
-        <v>5.952329178425861</v>
+        <v>4.859149944006379</v>
       </c>
       <c r="F2">
-        <v>29.60148885121266</v>
+        <v>22.98393645241583</v>
       </c>
       <c r="G2">
-        <v>3.664825440854381</v>
+        <v>2.10137993030897</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.63300401273158</v>
+        <v>15.93750193238517</v>
       </c>
       <c r="K2">
-        <v>11.41412099186364</v>
+        <v>12.55639158028656</v>
       </c>
       <c r="N2">
-        <v>19.39942542237698</v>
+        <v>12.72862537673023</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.76789784190014</v>
+        <v>12.79764243107162</v>
       </c>
       <c r="C3">
-        <v>6.334895046498746</v>
+        <v>8.403423281342338</v>
       </c>
       <c r="D3">
-        <v>5.93506451983622</v>
+        <v>4.816172769891676</v>
       </c>
       <c r="F3">
-        <v>29.61492478565791</v>
+        <v>22.53335408816488</v>
       </c>
       <c r="G3">
-        <v>3.66714188255632</v>
+        <v>2.10769256922962</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.71487049766979</v>
+        <v>16.00447814739352</v>
       </c>
       <c r="K3">
-        <v>11.24090438113097</v>
+        <v>11.71710282861731</v>
       </c>
       <c r="N3">
-        <v>19.46779707327449</v>
+        <v>12.96813958244568</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.6067064918257</v>
+        <v>12.18575098277697</v>
       </c>
       <c r="C4">
-        <v>6.210928206341651</v>
+        <v>7.991535750514765</v>
       </c>
       <c r="D4">
-        <v>5.924314909497383</v>
+        <v>4.789476811787589</v>
       </c>
       <c r="F4">
-        <v>29.63145243576174</v>
+        <v>22.27623425664676</v>
       </c>
       <c r="G4">
-        <v>3.668639123213434</v>
+        <v>2.111680755130336</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.77005964855058</v>
+        <v>16.05990482267761</v>
       </c>
       <c r="K4">
-        <v>11.1359417467182</v>
+        <v>11.17311422807725</v>
       </c>
       <c r="N4">
-        <v>19.51170662294467</v>
+        <v>13.11821455330971</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.54098092910881</v>
+        <v>11.92803000638289</v>
       </c>
       <c r="C5">
-        <v>6.160167599802673</v>
+        <v>7.818326435495325</v>
       </c>
       <c r="D5">
-        <v>5.919897850493808</v>
+        <v>4.778526019154361</v>
       </c>
       <c r="F5">
-        <v>29.64026528884904</v>
+        <v>22.17634006836101</v>
       </c>
       <c r="G5">
-        <v>3.669268165634274</v>
+        <v>2.113335037703756</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.79378454918449</v>
+        <v>16.08591492616197</v>
       </c>
       <c r="K5">
-        <v>11.09357480768847</v>
+        <v>10.9441801882524</v>
       </c>
       <c r="N5">
-        <v>19.53008664718057</v>
+        <v>13.18015917067869</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.5300680237584</v>
+        <v>11.88472823468122</v>
       </c>
       <c r="C6">
-        <v>6.151726847544135</v>
+        <v>7.789239913962207</v>
       </c>
       <c r="D6">
-        <v>5.919162224725103</v>
+        <v>4.776703462207994</v>
       </c>
       <c r="F6">
-        <v>29.64185400694687</v>
+        <v>22.16004651773509</v>
       </c>
       <c r="G6">
-        <v>3.66937376125172</v>
+        <v>2.113611509562908</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.79779854546547</v>
+        <v>16.09043567911107</v>
       </c>
       <c r="K6">
-        <v>11.08656596679512</v>
+        <v>10.90572644047438</v>
       </c>
       <c r="N6">
-        <v>19.53316806364162</v>
+        <v>13.19049347330709</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.60582011051748</v>
+        <v>12.18230924283168</v>
       </c>
       <c r="C7">
-        <v>6.210244494511008</v>
+        <v>7.989221563026036</v>
       </c>
       <c r="D7">
-        <v>5.924255486034845</v>
+        <v>4.789329409734361</v>
       </c>
       <c r="F7">
-        <v>29.63156288252911</v>
+        <v>22.27486732375272</v>
       </c>
       <c r="G7">
-        <v>3.668647530073657</v>
+        <v>2.111702946587167</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.77037461494124</v>
+        <v>16.06024196830507</v>
       </c>
       <c r="K7">
-        <v>11.13536865322479</v>
+        <v>11.17005617486011</v>
       </c>
       <c r="N7">
-        <v>19.51195253055613</v>
+        <v>13.11904673092251</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.93947646089402</v>
+        <v>13.42215756474104</v>
       </c>
       <c r="C8">
-        <v>6.466097205693705</v>
+        <v>8.824757501758489</v>
       </c>
       <c r="D8">
-        <v>5.946407838227123</v>
+        <v>4.844398510986986</v>
       </c>
       <c r="F8">
-        <v>29.60440153572828</v>
+        <v>22.82450766230346</v>
       </c>
       <c r="G8">
-        <v>3.665608633999325</v>
+        <v>2.103533767474829</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.66020805878046</v>
+        <v>15.95752082908529</v>
       </c>
       <c r="K8">
-        <v>11.35414040687754</v>
+        <v>12.27292386060514</v>
       </c>
       <c r="N8">
-        <v>19.42260046054172</v>
+        <v>12.81060344340481</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.58487833181121</v>
+        <v>15.59440561308437</v>
       </c>
       <c r="C9">
-        <v>6.953761977664416</v>
+        <v>10.2980123027748</v>
       </c>
       <c r="D9">
-        <v>5.988624366722171</v>
+        <v>4.94971690013489</v>
       </c>
       <c r="F9">
-        <v>29.6169373720515</v>
+        <v>24.05798177991876</v>
       </c>
       <c r="G9">
-        <v>3.660241148267918</v>
+        <v>2.08836335635508</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.4833647423626</v>
+        <v>15.8775936140462</v>
       </c>
       <c r="K9">
-        <v>11.79174085446894</v>
+        <v>14.21058059732569</v>
       </c>
       <c r="N9">
-        <v>19.26262053550528</v>
+        <v>12.22819118131752</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.04809858951048</v>
+        <v>17.03670034337105</v>
       </c>
       <c r="C10">
-        <v>7.299089151912932</v>
+        <v>11.28320335121482</v>
       </c>
       <c r="D10">
-        <v>6.018840376822291</v>
+        <v>5.025171532438864</v>
       </c>
       <c r="F10">
-        <v>29.66634026391367</v>
+        <v>25.05924794388587</v>
       </c>
       <c r="G10">
-        <v>3.65665449381408</v>
+        <v>2.077674422012218</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.37751030100131</v>
+        <v>15.90428833006307</v>
       </c>
       <c r="K10">
-        <v>12.1152063093897</v>
+        <v>15.50054957141229</v>
       </c>
       <c r="N10">
-        <v>19.15427765092197</v>
+        <v>11.81181809943209</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.25538827372165</v>
+        <v>17.66045141543658</v>
       </c>
       <c r="C11">
-        <v>7.45257157253632</v>
+        <v>11.71111197247607</v>
       </c>
       <c r="D11">
-        <v>6.032401129036549</v>
+        <v>5.059021671770463</v>
       </c>
       <c r="F11">
-        <v>29.69753072400184</v>
+        <v>25.53530861948165</v>
       </c>
       <c r="G11">
-        <v>3.655099479519545</v>
+        <v>2.072896317244372</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.3346188280399</v>
+        <v>15.93750731385388</v>
       </c>
       <c r="K11">
-        <v>12.26210797595586</v>
+        <v>16.05923301063541</v>
       </c>
       <c r="N11">
-        <v>19.10696565136973</v>
+        <v>11.62439270662259</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.33330956635568</v>
+        <v>17.89208066782736</v>
       </c>
       <c r="C12">
-        <v>7.51011411855426</v>
+        <v>11.8703091148277</v>
       </c>
       <c r="D12">
-        <v>6.037508667566159</v>
+        <v>5.071766893486277</v>
       </c>
       <c r="F12">
-        <v>29.71059174006479</v>
+        <v>25.71853148694036</v>
       </c>
       <c r="G12">
-        <v>3.654521583694201</v>
+        <v>2.071097795130022</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.31913665353585</v>
+        <v>15.95333016334024</v>
       </c>
       <c r="K12">
-        <v>12.31764616975879</v>
+        <v>16.26682241282164</v>
       </c>
       <c r="N12">
-        <v>19.08933213816894</v>
+        <v>11.55366036781159</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.31655461707183</v>
+        <v>17.84239715882716</v>
       </c>
       <c r="C13">
-        <v>7.497747880217549</v>
+        <v>11.83614840837898</v>
       </c>
       <c r="D13">
-        <v>6.036409913365187</v>
+        <v>5.069025307420266</v>
       </c>
       <c r="F13">
-        <v>29.70772330140881</v>
+        <v>25.67894010263367</v>
       </c>
       <c r="G13">
-        <v>3.654645557602363</v>
+        <v>2.07148467840491</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.32243717028382</v>
+        <v>15.94977474805502</v>
       </c>
       <c r="K13">
-        <v>12.30568989854397</v>
+        <v>16.22228975255324</v>
       </c>
       <c r="N13">
-        <v>19.09311728648818</v>
+        <v>11.56888382578567</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.26181086971427</v>
+        <v>17.67959883917156</v>
       </c>
       <c r="C14">
-        <v>7.457317531277857</v>
+        <v>11.72426576436615</v>
       </c>
       <c r="D14">
-        <v>6.032821889057077</v>
+        <v>5.060071720636385</v>
       </c>
       <c r="F14">
-        <v>29.69858023833508</v>
+        <v>25.55032340956328</v>
       </c>
       <c r="G14">
-        <v>3.655051716464138</v>
+        <v>2.072748142180402</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.33332985278919</v>
+        <v>15.93874283283032</v>
       </c>
       <c r="K14">
-        <v>12.26667925488503</v>
+        <v>16.07639068125475</v>
       </c>
       <c r="N14">
-        <v>19.10550927705206</v>
+        <v>11.61856893377634</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.22820157608072</v>
+        <v>17.579287266549</v>
       </c>
       <c r="C15">
-        <v>7.432475865318679</v>
+        <v>11.65536640837815</v>
       </c>
       <c r="D15">
-        <v>6.030620491364952</v>
+        <v>5.054577731629535</v>
       </c>
       <c r="F15">
-        <v>29.69314248564233</v>
+        <v>25.47192581614095</v>
       </c>
       <c r="G15">
-        <v>3.655301925396363</v>
+        <v>2.073523422323865</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.34010098954071</v>
+        <v>15.93241424544247</v>
       </c>
       <c r="K15">
-        <v>12.24277074852497</v>
+        <v>15.98650828707392</v>
       </c>
       <c r="N15">
-        <v>19.11313648225522</v>
+        <v>11.64903261069255</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.03447557524302</v>
+        <v>16.99529249121462</v>
       </c>
       <c r="C16">
-        <v>7.288980918146986</v>
+        <v>11.25483678227967</v>
       </c>
       <c r="D16">
-        <v>6.017950342427902</v>
+        <v>5.022949376982217</v>
       </c>
       <c r="F16">
-        <v>29.66447702432418</v>
+        <v>25.0285493724356</v>
       </c>
       <c r="G16">
-        <v>3.656757653636213</v>
+        <v>2.077988271964284</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.38041952397106</v>
+        <v>15.9025596084966</v>
       </c>
       <c r="K16">
-        <v>12.1055962662065</v>
+        <v>15.46347838862873</v>
       </c>
       <c r="N16">
-        <v>19.1574092059009</v>
+        <v>11.82410304630316</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.91469222190779</v>
+        <v>16.62879984263148</v>
       </c>
       <c r="C17">
-        <v>7.199983248496333</v>
+        <v>11.00398473131661</v>
       </c>
       <c r="D17">
-        <v>6.010129558649938</v>
+        <v>5.003421336640417</v>
       </c>
       <c r="F17">
-        <v>29.64912218348846</v>
+        <v>24.7618143844755</v>
       </c>
       <c r="G17">
-        <v>3.657670267392246</v>
+        <v>2.080748031444543</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.40650372053008</v>
+        <v>15.88979310427184</v>
       </c>
       <c r="K17">
-        <v>12.02134175515319</v>
+        <v>15.13546222527623</v>
       </c>
       <c r="N17">
-        <v>19.18507367345979</v>
+        <v>11.93198113552752</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.84547749187413</v>
+        <v>16.41495238405075</v>
       </c>
       <c r="C18">
-        <v>7.148457613953925</v>
+        <v>10.85778982388577</v>
       </c>
       <c r="D18">
-        <v>6.005613933310613</v>
+        <v>4.992144933411858</v>
       </c>
       <c r="F18">
-        <v>29.64111126368639</v>
+        <v>24.61033299490627</v>
       </c>
       <c r="G18">
-        <v>3.658202389445024</v>
+        <v>2.082343393788241</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.42200178145536</v>
+        <v>15.88442090426379</v>
       </c>
       <c r="K18">
-        <v>11.97286097453916</v>
+        <v>14.94414360811996</v>
       </c>
       <c r="N18">
-        <v>19.20117139673198</v>
+        <v>11.99421936478436</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.82199044785472</v>
+        <v>16.34202096575862</v>
       </c>
       <c r="C19">
-        <v>7.130956017366365</v>
+        <v>10.80796036699538</v>
       </c>
       <c r="D19">
-        <v>6.004082078504182</v>
+        <v>4.988319464488838</v>
       </c>
       <c r="F19">
-        <v>29.63853995929317</v>
+        <v>24.55937716622782</v>
       </c>
       <c r="G19">
-        <v>3.658383797020858</v>
+        <v>2.082884971368234</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.42733409764954</v>
+        <v>15.88293401568812</v>
       </c>
       <c r="K19">
-        <v>11.95644452258325</v>
+        <v>14.87890871231156</v>
       </c>
       <c r="N19">
-        <v>19.20665376967779</v>
+        <v>12.01532601492999</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.927476938069</v>
+        <v>16.66812876015253</v>
       </c>
       <c r="C20">
-        <v>7.209492478380159</v>
+        <v>11.03088568952485</v>
       </c>
       <c r="D20">
-        <v>6.010963894457856</v>
+        <v>5.005504760049956</v>
       </c>
       <c r="F20">
-        <v>29.65067180643274</v>
+        <v>24.79000834548597</v>
       </c>
       <c r="G20">
-        <v>3.657572372225121</v>
+        <v>2.08045342912129</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.4036757467198</v>
+        <v>15.89094662283149</v>
       </c>
       <c r="K20">
-        <v>12.03031324777074</v>
+        <v>15.17065410459812</v>
       </c>
       <c r="N20">
-        <v>19.18210951801472</v>
+        <v>11.92047801390779</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.27790665360286</v>
+        <v>17.72754006146372</v>
       </c>
       <c r="C21">
-        <v>7.469209029644295</v>
+        <v>11.75720496807114</v>
       </c>
       <c r="D21">
-        <v>6.03387653700046</v>
+        <v>5.062703627277303</v>
       </c>
       <c r="F21">
-        <v>29.70123189257642</v>
+        <v>25.58802126626429</v>
       </c>
       <c r="G21">
-        <v>3.654932120913046</v>
+        <v>2.072376748740513</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.33010975950367</v>
+        <v>15.94189343222739</v>
       </c>
       <c r="K21">
-        <v>12.27814050657259</v>
+        <v>16.11935196294137</v>
       </c>
       <c r="N21">
-        <v>19.1018617920199</v>
+        <v>11.60396901975385</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.50354886564696</v>
+        <v>18.39331964232721</v>
       </c>
       <c r="C22">
-        <v>7.635557091368154</v>
+        <v>12.21536426435932</v>
       </c>
       <c r="D22">
-        <v>6.048689763994513</v>
+        <v>5.099658282779957</v>
       </c>
       <c r="F22">
-        <v>29.74155830117429</v>
+        <v>26.12675855537699</v>
       </c>
       <c r="G22">
-        <v>3.653270388300629</v>
+        <v>2.067160696965025</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.28646081056665</v>
+        <v>15.99419689404963</v>
       </c>
       <c r="K22">
-        <v>12.43955956565449</v>
+        <v>16.71626727123227</v>
       </c>
       <c r="N22">
-        <v>19.05106137622593</v>
+        <v>11.39849787465391</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.38345429177897</v>
+        <v>18.04038721735278</v>
       </c>
       <c r="C23">
-        <v>7.547102293047216</v>
+        <v>11.97232410500616</v>
       </c>
       <c r="D23">
-        <v>6.040798797265746</v>
+        <v>5.079975600146285</v>
       </c>
       <c r="F23">
-        <v>29.71937056046982</v>
+        <v>25.83765306440498</v>
       </c>
       <c r="G23">
-        <v>3.654151464984674</v>
+        <v>2.069939333037488</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.30935063506469</v>
+        <v>15.96447128145494</v>
       </c>
       <c r="K23">
-        <v>12.35347524219442</v>
+        <v>16.3997717253323</v>
       </c>
       <c r="N23">
-        <v>19.07802432284502</v>
+        <v>11.50805011567008</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.92169805081342</v>
+        <v>16.65035796156073</v>
       </c>
       <c r="C24">
-        <v>7.205194471357035</v>
+        <v>11.01872992866043</v>
       </c>
       <c r="D24">
-        <v>6.010586751419498</v>
+        <v>5.004562998052407</v>
       </c>
       <c r="F24">
-        <v>29.64996867736639</v>
+        <v>24.77725603607129</v>
       </c>
       <c r="G24">
-        <v>3.65761660742468</v>
+        <v>2.080586591512698</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.40495271045352</v>
+        <v>15.89041900506701</v>
       </c>
       <c r="K24">
-        <v>12.02625736172737</v>
+        <v>15.15475238892669</v>
       </c>
       <c r="N24">
-        <v>19.18344901120749</v>
+        <v>11.9256778938912</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.4118242719515</v>
+        <v>15.03405851838539</v>
       </c>
       <c r="C25">
-        <v>6.823818575234708</v>
+        <v>9.916795665005987</v>
       </c>
       <c r="D25">
-        <v>5.977340318204705</v>
+        <v>4.921542524353763</v>
       </c>
       <c r="F25">
-        <v>29.60648808966737</v>
+        <v>23.70758422696378</v>
       </c>
       <c r="G25">
-        <v>3.661630248792819</v>
+        <v>2.092382478901621</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.52699093163784</v>
+        <v>15.88505544919125</v>
       </c>
       <c r="K25">
-        <v>11.67277991773348</v>
+        <v>13.71013454670556</v>
       </c>
       <c r="N25">
-        <v>19.30427783391555</v>
+        <v>12.38356146581975</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,844 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.74040639128353</v>
+        <v>24.21838577975513</v>
       </c>
       <c r="C2">
-        <v>9.039840575367561</v>
+        <v>16.08415162763684</v>
       </c>
       <c r="D2">
-        <v>4.859149944006379</v>
+        <v>4.093324228502157</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>22.98393645241583</v>
+        <v>23.2997166843984</v>
       </c>
       <c r="G2">
-        <v>2.10137993030897</v>
+        <v>32.16609501545549</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.74324900273836</v>
       </c>
       <c r="I2">
-        <v>15.93750193238517</v>
+        <v>2.539072211380198</v>
+      </c>
+      <c r="J2">
+        <v>10.50787577504196</v>
       </c>
       <c r="K2">
-        <v>12.55639158028656</v>
+        <v>16.29904666211089</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.72862537673023</v>
+        <v>8.927811178291424</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.79764243107162</v>
+        <v>22.60709850941544</v>
       </c>
       <c r="C3">
-        <v>8.403423281342338</v>
+        <v>15.21185839989787</v>
       </c>
       <c r="D3">
-        <v>4.816172769891676</v>
+        <v>4.042198993381783</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>22.53335408816488</v>
+        <v>22.45270014353692</v>
       </c>
       <c r="G3">
-        <v>2.10769256922962</v>
+        <v>30.83452189028852</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.987432011651093</v>
       </c>
       <c r="I3">
-        <v>16.00447814739352</v>
+        <v>2.621604687534324</v>
+      </c>
+      <c r="J3">
+        <v>10.37202856679596</v>
       </c>
       <c r="K3">
-        <v>11.71710282861731</v>
+        <v>16.2314855597306</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.96813958244568</v>
+        <v>8.534206348730471</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.18575098277697</v>
+        <v>21.55772708914656</v>
       </c>
       <c r="C4">
-        <v>7.991535750514765</v>
+        <v>14.6539199684555</v>
       </c>
       <c r="D4">
-        <v>4.789476811787589</v>
+        <v>4.010212336716316</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>22.27623425664676</v>
+        <v>21.92801828379775</v>
       </c>
       <c r="G4">
-        <v>2.111680755130336</v>
+        <v>30.0035038607119</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.142320485925723</v>
       </c>
       <c r="I4">
-        <v>16.05990482267761</v>
+        <v>2.761108277855788</v>
+      </c>
+      <c r="J4">
+        <v>10.29203155777866</v>
       </c>
       <c r="K4">
-        <v>11.17311422807725</v>
+        <v>16.19482508938875</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.11821455330971</v>
+        <v>8.283069190552338</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.92803000638289</v>
+        <v>21.11475419111796</v>
       </c>
       <c r="C5">
-        <v>7.818326435495325</v>
+        <v>14.43039823964964</v>
       </c>
       <c r="D5">
-        <v>4.778526019154361</v>
+        <v>3.99839173426018</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>22.17634006836101</v>
+        <v>21.69608925775137</v>
       </c>
       <c r="G5">
-        <v>2.113335037703756</v>
+        <v>29.63060297325165</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.207075028847604</v>
       </c>
       <c r="I5">
-        <v>16.08591492616197</v>
+        <v>2.822321553163694</v>
+      </c>
+      <c r="J5">
+        <v>10.25441919916475</v>
       </c>
       <c r="K5">
-        <v>10.9441801882524</v>
+        <v>16.16876212732529</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.18015917067869</v>
+        <v>8.178180126641719</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.88472823468122</v>
+        <v>21.04007023868287</v>
       </c>
       <c r="C6">
-        <v>7.789239913962207</v>
+        <v>14.40446037538321</v>
       </c>
       <c r="D6">
-        <v>4.776703462207994</v>
+        <v>3.998098343097727</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>22.16004651773509</v>
+        <v>21.63644611114337</v>
       </c>
       <c r="G6">
-        <v>2.113611509562908</v>
+        <v>29.53020105429243</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.218348491698082</v>
       </c>
       <c r="I6">
-        <v>16.09043567911107</v>
+        <v>2.836498475133596</v>
+      </c>
+      <c r="J6">
+        <v>10.24105490973769</v>
       </c>
       <c r="K6">
-        <v>10.90572644047438</v>
+        <v>16.14950634121799</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.19049347330709</v>
+        <v>8.160332048060432</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.18230924283168</v>
+        <v>21.55124761587332</v>
       </c>
       <c r="C7">
-        <v>7.989221563026036</v>
+        <v>14.68180252461406</v>
       </c>
       <c r="D7">
-        <v>4.789329409734361</v>
+        <v>4.014660578699928</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>22.27486732375272</v>
+        <v>21.86800897163981</v>
       </c>
       <c r="G7">
-        <v>2.111702946587167</v>
+        <v>29.89529666391683</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.144377945444853</v>
       </c>
       <c r="I7">
-        <v>16.06024196830507</v>
+        <v>2.772408004913563</v>
+      </c>
+      <c r="J7">
+        <v>10.27203056137776</v>
       </c>
       <c r="K7">
-        <v>11.17005617486011</v>
+        <v>16.15358292608488</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.11904673092251</v>
+        <v>8.280882009634629</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.42215756474104</v>
+        <v>23.67450363021248</v>
       </c>
       <c r="C8">
-        <v>8.824757501758489</v>
+        <v>15.82649079311569</v>
       </c>
       <c r="D8">
-        <v>4.844398510986986</v>
+        <v>4.082040411031929</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>22.82450766230346</v>
+        <v>22.93684417115825</v>
       </c>
       <c r="G8">
-        <v>2.103533767474829</v>
+        <v>31.58028825450241</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.827909040887564</v>
       </c>
       <c r="I8">
-        <v>15.95752082908529</v>
+        <v>2.49103753285604</v>
+      </c>
+      <c r="J8">
+        <v>10.4350081007069</v>
       </c>
       <c r="K8">
-        <v>12.27292386060514</v>
+        <v>16.22107729338237</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.81060344340481</v>
+        <v>8.793157965836741</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.59440561308437</v>
+        <v>27.36639888708097</v>
       </c>
       <c r="C9">
-        <v>10.2980123027748</v>
+        <v>17.84170268595387</v>
       </c>
       <c r="D9">
-        <v>4.94971690013489</v>
+        <v>4.200935487623905</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>24.05798177991876</v>
+        <v>25.0808931799741</v>
       </c>
       <c r="G9">
-        <v>2.08836335635508</v>
+        <v>34.93305381559541</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.86997397600811</v>
       </c>
       <c r="I9">
-        <v>15.8775936140462</v>
+        <v>2.977048701721515</v>
+      </c>
+      <c r="J9">
+        <v>10.81604194178711</v>
       </c>
       <c r="K9">
-        <v>14.21058059732569</v>
+        <v>16.46694435333041</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.22819118131752</v>
+        <v>9.721326463177778</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.03670034337105</v>
+        <v>29.79233828943632</v>
       </c>
       <c r="C10">
-        <v>11.28320335121482</v>
+        <v>19.34666862643851</v>
       </c>
       <c r="D10">
-        <v>5.025171532438864</v>
+        <v>4.312540988678641</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>25.05924794388587</v>
+        <v>26.36052680096364</v>
       </c>
       <c r="G10">
-        <v>2.077674422012218</v>
+        <v>36.85084620199736</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.254415807253813</v>
       </c>
       <c r="I10">
-        <v>15.90428833006307</v>
+        <v>3.330074760115388</v>
+      </c>
+      <c r="J10">
+        <v>11.01753056660114</v>
       </c>
       <c r="K10">
-        <v>15.50054957141229</v>
+        <v>16.4687936177019</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.81181809943209</v>
+        <v>10.17083208890775</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.66045141543658</v>
+        <v>30.81028313104555</v>
       </c>
       <c r="C11">
-        <v>11.71111197247607</v>
+        <v>21.11193800474218</v>
       </c>
       <c r="D11">
-        <v>5.059021671770463</v>
+        <v>4.6181343944477</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>25.53530861948165</v>
+        <v>24.88401596652432</v>
       </c>
       <c r="G11">
-        <v>2.072896317244372</v>
+        <v>34.06793557013382</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.069036964878238</v>
       </c>
       <c r="I11">
-        <v>15.93750731385388</v>
+        <v>3.438339128950095</v>
+      </c>
+      <c r="J11">
+        <v>10.33884735280395</v>
       </c>
       <c r="K11">
-        <v>16.05923301063541</v>
+        <v>14.82075753613634</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.62439270662259</v>
+        <v>8.849549022995429</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.89208066782736</v>
+        <v>31.17970561403769</v>
       </c>
       <c r="C12">
-        <v>11.8703091148277</v>
+        <v>22.29077879518339</v>
       </c>
       <c r="D12">
-        <v>5.071766893486277</v>
+        <v>4.880775063595724</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>25.71853148694036</v>
+        <v>23.41889360797536</v>
       </c>
       <c r="G12">
-        <v>2.071097795130022</v>
+        <v>31.40864098585786</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.277054556531324</v>
       </c>
       <c r="I12">
-        <v>15.95333016334024</v>
+        <v>3.46011669709242</v>
+      </c>
+      <c r="J12">
+        <v>9.745371059231177</v>
       </c>
       <c r="K12">
-        <v>16.26682241282164</v>
+        <v>13.5332384993999</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.55366036781159</v>
+        <v>7.721155229347174</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.84239715882716</v>
+        <v>31.08437107870629</v>
       </c>
       <c r="C13">
-        <v>11.83614840837898</v>
+        <v>23.15606781679386</v>
       </c>
       <c r="D13">
-        <v>5.069025307420266</v>
+        <v>5.128122428915913</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>25.67894010263367</v>
+        <v>21.75671498337804</v>
       </c>
       <c r="G13">
-        <v>2.07148467840491</v>
+        <v>28.46720956005521</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.567734136708449</v>
       </c>
       <c r="I13">
-        <v>15.94977474805502</v>
+        <v>3.419265314587547</v>
+      </c>
+      <c r="J13">
+        <v>9.148189482474498</v>
       </c>
       <c r="K13">
-        <v>16.22228975255324</v>
+        <v>12.40642213137907</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.56888382578567</v>
+        <v>6.693794403484948</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.67959883917156</v>
+        <v>30.80635149247033</v>
       </c>
       <c r="C14">
-        <v>11.72426576436615</v>
+        <v>23.64146860373417</v>
       </c>
       <c r="D14">
-        <v>5.060071720636385</v>
+        <v>5.298580456453841</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>25.55032340956328</v>
+        <v>20.47236235501345</v>
       </c>
       <c r="G14">
-        <v>2.072748142180402</v>
+        <v>26.21939198779697</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.500142876811839</v>
       </c>
       <c r="I14">
-        <v>15.93874283283032</v>
+        <v>3.363749159303397</v>
+      </c>
+      <c r="J14">
+        <v>8.725171820593465</v>
       </c>
       <c r="K14">
-        <v>16.07639068125475</v>
+        <v>11.7165883849849</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.61856893377634</v>
+        <v>6.070496833953978</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.579287266549</v>
+        <v>30.63763421213951</v>
       </c>
       <c r="C15">
-        <v>11.65536640837815</v>
+        <v>23.70195781030294</v>
       </c>
       <c r="D15">
-        <v>5.054577731629535</v>
+        <v>5.335706666293894</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>25.47192581614095</v>
+        <v>20.09825654576687</v>
       </c>
       <c r="G15">
-        <v>2.073523422323865</v>
+        <v>25.57543141632899</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.711794734771264</v>
       </c>
       <c r="I15">
-        <v>15.93241424544247</v>
+        <v>3.337023902419895</v>
+      </c>
+      <c r="J15">
+        <v>8.616343528391576</v>
       </c>
       <c r="K15">
-        <v>15.98650828707392</v>
+        <v>11.57137322563672</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.64903261069255</v>
+        <v>5.931764782206097</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.99529249121462</v>
+        <v>29.66290846608539</v>
       </c>
       <c r="C16">
-        <v>11.25483678227967</v>
+        <v>22.99009751085836</v>
       </c>
       <c r="D16">
-        <v>5.022949376982217</v>
+        <v>5.24108493247908</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>25.0285493724356</v>
+        <v>19.75340003829875</v>
       </c>
       <c r="G16">
-        <v>2.077988271964284</v>
+        <v>25.08925862948299</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.43600092853166</v>
       </c>
       <c r="I16">
-        <v>15.9025596084966</v>
+        <v>3.19570497654785</v>
+      </c>
+      <c r="J16">
+        <v>8.628972052438897</v>
       </c>
       <c r="K16">
-        <v>15.46347838862873</v>
+        <v>11.79803256383531</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.82410304630316</v>
+        <v>5.896160071602118</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.62879984263148</v>
+        <v>29.05306335995185</v>
       </c>
       <c r="C17">
-        <v>11.00398473131661</v>
+        <v>22.15946648283541</v>
       </c>
       <c r="D17">
-        <v>5.003421336640417</v>
+        <v>5.073917713371321</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>24.7618143844755</v>
+        <v>20.19938734278836</v>
       </c>
       <c r="G17">
-        <v>2.080748031444543</v>
+        <v>25.96683691150255</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.681601739927013</v>
       </c>
       <c r="I17">
-        <v>15.88979310427184</v>
+        <v>3.116706271898135</v>
+      </c>
+      <c r="J17">
+        <v>8.864205868282991</v>
       </c>
       <c r="K17">
-        <v>15.13546222527623</v>
+        <v>12.31332994923815</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.93198113552752</v>
+        <v>6.181319693029099</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.41495238405075</v>
+        <v>28.7035584009822</v>
       </c>
       <c r="C18">
-        <v>10.85778982388577</v>
+        <v>21.12533777009372</v>
       </c>
       <c r="D18">
-        <v>4.992144933411858</v>
+        <v>4.831387280895147</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>24.61033299490627</v>
+        <v>21.41052281139363</v>
       </c>
       <c r="G18">
-        <v>2.082343393788241</v>
+        <v>28.17971497386639</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.454552320975086</v>
       </c>
       <c r="I18">
-        <v>15.88442090426379</v>
+        <v>3.082817115479771</v>
+      </c>
+      <c r="J18">
+        <v>9.333064774572875</v>
       </c>
       <c r="K18">
-        <v>14.94414360811996</v>
+        <v>13.2195631555418</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.99421936478436</v>
+        <v>6.896803754063105</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.34202096575862</v>
+        <v>28.59558109797958</v>
       </c>
       <c r="C19">
-        <v>10.80796036699538</v>
+        <v>20.08934085012638</v>
       </c>
       <c r="D19">
-        <v>4.988319464488838</v>
+        <v>4.58177364065924</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>24.55937716622782</v>
+        <v>23.03736525314701</v>
       </c>
       <c r="G19">
-        <v>2.082884971368234</v>
+        <v>31.10293598030553</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.08834475556816</v>
       </c>
       <c r="I19">
-        <v>15.88293401568812</v>
+        <v>3.100371260299354</v>
+      </c>
+      <c r="J19">
+        <v>9.92841117477616</v>
       </c>
       <c r="K19">
-        <v>14.87890871231156</v>
+        <v>14.3962389985038</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.01532601492999</v>
+        <v>8.020273818749553</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.66812876015253</v>
+        <v>29.17245759393586</v>
       </c>
       <c r="C20">
-        <v>11.03088568952485</v>
+        <v>19.04403027365067</v>
       </c>
       <c r="D20">
-        <v>5.005504760049956</v>
+        <v>4.299985443080419</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>24.79000834548597</v>
+        <v>25.86605420528166</v>
       </c>
       <c r="G20">
-        <v>2.08045342912129</v>
+        <v>36.06606454699384</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.149866043580887</v>
       </c>
       <c r="I20">
-        <v>15.89094662283149</v>
+        <v>3.245832944121707</v>
+      </c>
+      <c r="J20">
+        <v>10.90321542303516</v>
       </c>
       <c r="K20">
-        <v>15.17065410459812</v>
+        <v>16.33589157122507</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.92047801390779</v>
+        <v>10.04491827099287</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.72754006146372</v>
+        <v>30.95108825288438</v>
       </c>
       <c r="C21">
-        <v>11.75720496807114</v>
+        <v>19.95403929478701</v>
       </c>
       <c r="D21">
-        <v>5.062703627277303</v>
+        <v>4.342938411151073</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>25.58802126626429</v>
+        <v>27.2282497460095</v>
       </c>
       <c r="G21">
-        <v>2.072376748740513</v>
+        <v>38.21017573872771</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.461265576320185</v>
       </c>
       <c r="I21">
-        <v>15.94189343222739</v>
+        <v>3.521111009396099</v>
+      </c>
+      <c r="J21">
+        <v>11.21082778550824</v>
       </c>
       <c r="K21">
-        <v>16.11935196294137</v>
+        <v>16.66675436558926</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.60396901975385</v>
+        <v>10.65771957222312</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.39331964232721</v>
+        <v>32.0626309750502</v>
       </c>
       <c r="C22">
-        <v>12.21536426435932</v>
+        <v>20.56227440622661</v>
       </c>
       <c r="D22">
-        <v>5.099658282779957</v>
+        <v>4.376873637209944</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>26.12675855537699</v>
+        <v>28.04741590000976</v>
       </c>
       <c r="G22">
-        <v>2.067160696965025</v>
+        <v>39.48159795343769</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.655068663278826</v>
       </c>
       <c r="I22">
-        <v>15.99419689404963</v>
+        <v>3.692821500111468</v>
+      </c>
+      <c r="J22">
+        <v>11.39319188917773</v>
       </c>
       <c r="K22">
-        <v>16.71626727123227</v>
+        <v>16.84321961764591</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.39849787465391</v>
+        <v>10.95535072516257</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.04038721735278</v>
+        <v>31.47452039429082</v>
       </c>
       <c r="C23">
-        <v>11.97232410500616</v>
+        <v>20.21137543793994</v>
       </c>
       <c r="D23">
-        <v>5.079975600146285</v>
+        <v>4.353004910871465</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>25.83765306440498</v>
+        <v>27.66504997565801</v>
       </c>
       <c r="G23">
-        <v>2.069939333037488</v>
+        <v>38.90032847495696</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.552986510229393</v>
       </c>
       <c r="I23">
-        <v>15.96447128145494</v>
+        <v>3.598559082039361</v>
+      </c>
+      <c r="J23">
+        <v>11.31629021775989</v>
       </c>
       <c r="K23">
-        <v>16.3997717253323</v>
+        <v>16.79402759041644</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.50805011567008</v>
+        <v>10.79800800855941</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.65035796156073</v>
+        <v>29.14592774293188</v>
       </c>
       <c r="C24">
-        <v>11.01872992866043</v>
+        <v>18.88538795258412</v>
       </c>
       <c r="D24">
-        <v>5.004562998052407</v>
+        <v>4.270500183490892</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>24.77725603607129</v>
+        <v>26.11498329019418</v>
       </c>
       <c r="G24">
-        <v>2.080586591512698</v>
+        <v>36.51358966271269</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.158282185047812</v>
       </c>
       <c r="I24">
-        <v>15.89041900506701</v>
+        <v>3.241410109637723</v>
+      </c>
+      <c r="J24">
+        <v>10.99981147480895</v>
       </c>
       <c r="K24">
-        <v>15.15475238892669</v>
+        <v>16.55076400692198</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.9256778938912</v>
+        <v>10.18204667426015</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.03405851838539</v>
+        <v>26.41678781791298</v>
       </c>
       <c r="C25">
-        <v>9.916795665005987</v>
+        <v>17.36426023479553</v>
       </c>
       <c r="D25">
-        <v>4.921542524353763</v>
+        <v>4.178008872807442</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>23.70758422696378</v>
+        <v>24.41541853424073</v>
       </c>
       <c r="G25">
-        <v>2.092382478901621</v>
+        <v>33.87686205520433</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.717682668106081</v>
       </c>
       <c r="I25">
-        <v>15.88505544919125</v>
+        <v>2.846865095188655</v>
+      </c>
+      <c r="J25">
+        <v>10.67642414407431</v>
       </c>
       <c r="K25">
-        <v>13.71013454670556</v>
+        <v>16.32351178955142</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.38356146581975</v>
+        <v>9.477711721062457</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.21838577975513</v>
+        <v>24.2398823018798</v>
       </c>
       <c r="C2">
-        <v>16.08415162763684</v>
+        <v>16.62770170026712</v>
       </c>
       <c r="D2">
-        <v>4.093324228502157</v>
+        <v>4.208261403797334</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.2997166843984</v>
+        <v>21.87604469803145</v>
       </c>
       <c r="G2">
-        <v>32.16609501545549</v>
+        <v>29.07817954328827</v>
       </c>
       <c r="H2">
-        <v>1.74324900273836</v>
+        <v>1.699993472578013</v>
       </c>
       <c r="I2">
-        <v>2.539072211380198</v>
+        <v>2.591607721002468</v>
       </c>
       <c r="J2">
-        <v>10.50787577504196</v>
+        <v>10.4981149212472</v>
       </c>
       <c r="K2">
-        <v>16.29904666211089</v>
+        <v>15.12765779367696</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.9632003314785</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.501831418330461</v>
       </c>
       <c r="N2">
-        <v>8.927811178291424</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.955159296082631</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.60709850941544</v>
+        <v>22.63921833669218</v>
       </c>
       <c r="C3">
-        <v>15.21185839989787</v>
+        <v>15.64069124368893</v>
       </c>
       <c r="D3">
-        <v>4.042198993381783</v>
+        <v>4.117374851734625</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.45270014353692</v>
+        <v>21.200095505544</v>
       </c>
       <c r="G3">
-        <v>30.83452189028852</v>
+        <v>28.04736272365868</v>
       </c>
       <c r="H3">
-        <v>1.987432011651093</v>
+        <v>1.921813777781505</v>
       </c>
       <c r="I3">
-        <v>2.621604687534324</v>
+        <v>2.544609539909005</v>
       </c>
       <c r="J3">
-        <v>10.37202856679596</v>
+        <v>10.38808464880809</v>
       </c>
       <c r="K3">
-        <v>16.2314855597306</v>
+        <v>15.18535786954338</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.09533433653354</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.450195879009915</v>
       </c>
       <c r="N3">
-        <v>8.534206348730471</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.576732804720349</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.55772708914656</v>
+        <v>21.59641161578406</v>
       </c>
       <c r="C4">
-        <v>14.6539199684555</v>
+        <v>15.0078477974128</v>
       </c>
       <c r="D4">
-        <v>4.010212336716316</v>
+        <v>4.060823988427934</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.92801828379775</v>
+        <v>20.78222028979949</v>
       </c>
       <c r="G4">
-        <v>30.0035038607119</v>
+        <v>27.41053906545573</v>
       </c>
       <c r="H4">
-        <v>2.142320485925723</v>
+        <v>2.062634977652586</v>
       </c>
       <c r="I4">
-        <v>2.761108277855788</v>
+        <v>2.666621809334985</v>
       </c>
       <c r="J4">
-        <v>10.29203155777866</v>
+        <v>10.32074704308434</v>
       </c>
       <c r="K4">
-        <v>16.19482508938875</v>
+        <v>15.22409648173269</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.17519705177944</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.441728739720176</v>
       </c>
       <c r="N4">
-        <v>8.283069190552338</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>8.335594832858881</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.11475419111796</v>
+        <v>21.15614433223562</v>
       </c>
       <c r="C5">
-        <v>14.43039823964964</v>
+        <v>14.75246965028852</v>
       </c>
       <c r="D5">
-        <v>3.99839173426018</v>
+        <v>4.039163413242618</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.69608925775137</v>
+        <v>20.59581093355143</v>
       </c>
       <c r="G5">
-        <v>29.63060297325165</v>
+        <v>27.12164839563822</v>
       </c>
       <c r="H5">
-        <v>2.207075028847604</v>
+        <v>2.121542562808121</v>
       </c>
       <c r="I5">
-        <v>2.822321553163694</v>
+        <v>2.721146748811938</v>
       </c>
       <c r="J5">
-        <v>10.25441919916475</v>
+        <v>10.288230729535</v>
       </c>
       <c r="K5">
-        <v>16.16876212732529</v>
+        <v>15.23019508451746</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.19854012368388</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.437159146946057</v>
       </c>
       <c r="N5">
-        <v>8.178180126641719</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>8.23497366700572</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.04007023868287</v>
+        <v>21.08191815490826</v>
       </c>
       <c r="C6">
-        <v>14.40446037538321</v>
+        <v>14.7208847103994</v>
       </c>
       <c r="D6">
-        <v>3.998098343097727</v>
+        <v>4.037472874100253</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.63644611114337</v>
+        <v>20.54578128199444</v>
       </c>
       <c r="G6">
-        <v>29.53020105429243</v>
+        <v>27.03861007102719</v>
       </c>
       <c r="H6">
-        <v>2.218348491698082</v>
+        <v>2.131808791748607</v>
       </c>
       <c r="I6">
-        <v>2.836498475133596</v>
+        <v>2.734873271666081</v>
       </c>
       <c r="J6">
-        <v>10.24105490973769</v>
+        <v>10.27656060250987</v>
       </c>
       <c r="K6">
-        <v>16.14950634121799</v>
+        <v>15.21848878458899</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.19155875913557</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.428323158142224</v>
       </c>
       <c r="N6">
-        <v>8.160332048060432</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>8.217864045260466</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.55124761587332</v>
+        <v>21.58970900968737</v>
       </c>
       <c r="C7">
-        <v>14.68180252461406</v>
+        <v>15.02451570574143</v>
       </c>
       <c r="D7">
-        <v>4.014660578699928</v>
+        <v>4.069239853685399</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.86800897163981</v>
+        <v>20.69742941790754</v>
       </c>
       <c r="G7">
-        <v>29.89529666391683</v>
+        <v>27.38201610311602</v>
       </c>
       <c r="H7">
-        <v>2.144377945444853</v>
+        <v>2.065097850585985</v>
       </c>
       <c r="I7">
-        <v>2.772408004913563</v>
+        <v>2.680274166036258</v>
       </c>
       <c r="J7">
-        <v>10.27203056137776</v>
+        <v>10.24858170411449</v>
       </c>
       <c r="K7">
-        <v>16.15358292608488</v>
+        <v>15.17458728986099</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.13407881123708</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.407964539100981</v>
       </c>
       <c r="N7">
-        <v>8.280882009634629</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>8.333140382174323</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.67450363021248</v>
+        <v>23.69882580692384</v>
       </c>
       <c r="C8">
-        <v>15.82649079311569</v>
+        <v>16.29939004096111</v>
       </c>
       <c r="D8">
-        <v>4.082040411031929</v>
+        <v>4.195819611706358</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.93684417115825</v>
+        <v>21.48036082729801</v>
       </c>
       <c r="G8">
-        <v>31.58028825450241</v>
+        <v>28.82761542948075</v>
       </c>
       <c r="H8">
-        <v>1.827909040887564</v>
+        <v>1.77865749158606</v>
       </c>
       <c r="I8">
-        <v>2.49103753285604</v>
+        <v>2.530825337712207</v>
       </c>
       <c r="J8">
-        <v>10.4350081007069</v>
+        <v>10.26031253832648</v>
       </c>
       <c r="K8">
-        <v>16.22107729338237</v>
+        <v>15.0529289315159</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.93513260491347</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.40946956846453</v>
       </c>
       <c r="N8">
-        <v>8.793157965836741</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.824547333102792</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.36639888708097</v>
+        <v>27.36367533525388</v>
       </c>
       <c r="C9">
-        <v>17.84170268595387</v>
+        <v>18.57167996689757</v>
       </c>
       <c r="D9">
-        <v>4.200935487623905</v>
+        <v>4.415049555457736</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.0808931799741</v>
+        <v>23.18742732621971</v>
       </c>
       <c r="G9">
-        <v>34.93305381559541</v>
+        <v>31.51947906552464</v>
       </c>
       <c r="H9">
-        <v>1.86997397600811</v>
+        <v>1.864812764380114</v>
       </c>
       <c r="I9">
-        <v>2.977048701721515</v>
+        <v>2.972836237450835</v>
       </c>
       <c r="J9">
-        <v>10.81604194178711</v>
+        <v>10.51280622961564</v>
       </c>
       <c r="K9">
-        <v>16.46694435333041</v>
+        <v>14.9588203546991</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.62700261941425</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.682325061476424</v>
       </c>
       <c r="N9">
-        <v>9.721326463177778</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.718126152066377</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.79233828943632</v>
+        <v>29.768029145318</v>
       </c>
       <c r="C10">
-        <v>19.34666862643851</v>
+        <v>20.18159017344697</v>
       </c>
       <c r="D10">
-        <v>4.312540988678641</v>
+        <v>4.620553058827008</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.36052680096364</v>
+        <v>24.0546037441145</v>
       </c>
       <c r="G10">
-        <v>36.85084620199736</v>
+        <v>33.42488174413503</v>
       </c>
       <c r="H10">
-        <v>2.254415807253813</v>
+        <v>2.209910696795307</v>
       </c>
       <c r="I10">
-        <v>3.330074760115388</v>
+        <v>3.278774258117475</v>
       </c>
       <c r="J10">
-        <v>11.01753056660114</v>
+        <v>10.33308569792426</v>
       </c>
       <c r="K10">
-        <v>16.4687936177019</v>
+        <v>14.67160019453019</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.23070294477232</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.791246367352905</v>
       </c>
       <c r="N10">
-        <v>10.17083208890775</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>10.14366330563962</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.81028313104555</v>
+        <v>30.77811850099862</v>
       </c>
       <c r="C11">
-        <v>21.11193800474218</v>
+        <v>21.77022421983695</v>
       </c>
       <c r="D11">
-        <v>4.6181343944477</v>
+        <v>5.006487597254715</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.88401596652432</v>
+        <v>22.49793091213827</v>
       </c>
       <c r="G11">
-        <v>34.06793557013382</v>
+        <v>31.84583130533082</v>
       </c>
       <c r="H11">
-        <v>3.069036964878238</v>
+        <v>3.02619719932463</v>
       </c>
       <c r="I11">
-        <v>3.438339128950095</v>
+        <v>3.371931409590118</v>
       </c>
       <c r="J11">
-        <v>10.33884735280395</v>
+        <v>9.208992441601575</v>
       </c>
       <c r="K11">
-        <v>14.82075753613634</v>
+        <v>13.17823816867495</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.16374870307595</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.66286139718917</v>
       </c>
       <c r="N11">
-        <v>8.849549022995429</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.81064422347043</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.17970561403769</v>
+        <v>31.14575835099515</v>
       </c>
       <c r="C12">
-        <v>22.29077879518339</v>
+        <v>22.79301992980994</v>
       </c>
       <c r="D12">
-        <v>4.880775063595724</v>
+        <v>5.292450962769498</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.41889360797536</v>
+        <v>21.13964650749821</v>
       </c>
       <c r="G12">
-        <v>31.40864098585786</v>
+        <v>29.99050311219477</v>
       </c>
       <c r="H12">
-        <v>4.277054556531324</v>
+        <v>4.245255468876743</v>
       </c>
       <c r="I12">
-        <v>3.46011669709242</v>
+        <v>3.38954388686095</v>
       </c>
       <c r="J12">
-        <v>9.745371059231177</v>
+        <v>8.532572064510163</v>
       </c>
       <c r="K12">
-        <v>13.5332384993999</v>
+        <v>12.14512889600917</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.49576129904981</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.781831246429991</v>
       </c>
       <c r="N12">
-        <v>7.721155229347174</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.676379157317151</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.08437107870629</v>
+        <v>31.05372828965883</v>
       </c>
       <c r="C13">
-        <v>23.15606781679386</v>
+        <v>23.52798036786979</v>
       </c>
       <c r="D13">
-        <v>5.128122428915913</v>
+        <v>5.507958406290499</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.75671498337804</v>
+        <v>19.81301557999088</v>
       </c>
       <c r="G13">
-        <v>28.46720956005521</v>
+        <v>27.46604786648789</v>
       </c>
       <c r="H13">
-        <v>5.567734136708449</v>
+        <v>5.54633446494474</v>
       </c>
       <c r="I13">
-        <v>3.419265314587547</v>
+        <v>3.355382813187206</v>
       </c>
       <c r="J13">
-        <v>9.148189482474498</v>
+        <v>8.201726971484494</v>
       </c>
       <c r="K13">
-        <v>12.40642213137907</v>
+        <v>11.3861041128015</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.04895502539927</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.039505172089701</v>
       </c>
       <c r="N13">
-        <v>6.693794403484948</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.649202871711064</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.80635149247033</v>
+        <v>30.78017296120235</v>
       </c>
       <c r="C14">
-        <v>23.64146860373417</v>
+        <v>23.93102000924509</v>
       </c>
       <c r="D14">
-        <v>5.298580456453841</v>
+        <v>5.629278647894369</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.47236235501345</v>
+        <v>18.86897707583321</v>
       </c>
       <c r="G14">
-        <v>26.21939198779697</v>
+        <v>25.34571012064515</v>
       </c>
       <c r="H14">
-        <v>6.500142876811839</v>
+        <v>6.484872972658283</v>
       </c>
       <c r="I14">
-        <v>3.363749159303397</v>
+        <v>3.309596752848497</v>
       </c>
       <c r="J14">
-        <v>8.725171820593465</v>
+        <v>8.099389959465661</v>
       </c>
       <c r="K14">
-        <v>11.7165883849849</v>
+        <v>10.9844980989497</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.826755013628151</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.59790698940223</v>
       </c>
       <c r="N14">
-        <v>6.070496833953978</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.029669885500902</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.63763421213951</v>
+        <v>30.61365523536242</v>
       </c>
       <c r="C15">
-        <v>23.70195781030294</v>
+        <v>23.97632266011347</v>
       </c>
       <c r="D15">
-        <v>5.335706666293894</v>
+        <v>5.644301562137106</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.09825654576687</v>
+        <v>18.62357611436071</v>
       </c>
       <c r="G15">
-        <v>25.57543141632899</v>
+        <v>24.66357760084152</v>
       </c>
       <c r="H15">
-        <v>6.711794734771264</v>
+        <v>6.698403610040302</v>
       </c>
       <c r="I15">
-        <v>3.337023902419895</v>
+        <v>3.288162956513305</v>
       </c>
       <c r="J15">
-        <v>8.616343528391576</v>
+        <v>8.124732885697536</v>
       </c>
       <c r="K15">
-        <v>11.57137322563672</v>
+        <v>10.92299347641122</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.795556121297469</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.512450584580659</v>
       </c>
       <c r="N15">
-        <v>5.931764782206097</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.893717717506506</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.66290846608539</v>
+        <v>29.64946959928226</v>
       </c>
       <c r="C16">
-        <v>22.99009751085836</v>
+        <v>23.31496154637393</v>
       </c>
       <c r="D16">
-        <v>5.24108493247908</v>
+        <v>5.471854291638788</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.75340003829875</v>
+        <v>18.64011123154438</v>
       </c>
       <c r="G16">
-        <v>25.08925862948299</v>
+        <v>23.5837593359931</v>
       </c>
       <c r="H16">
-        <v>6.43600092853166</v>
+        <v>6.436969438734972</v>
       </c>
       <c r="I16">
-        <v>3.19570497654785</v>
+        <v>3.17067314638771</v>
       </c>
       <c r="J16">
-        <v>8.628972052438897</v>
+        <v>8.606595825301433</v>
       </c>
       <c r="K16">
-        <v>11.79803256383531</v>
+        <v>11.26246690127576</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.01388616311865</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.73181971709797</v>
       </c>
       <c r="N16">
-        <v>5.896160071602118</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.874494616240908</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.05306335995185</v>
+        <v>29.04503835213851</v>
       </c>
       <c r="C17">
-        <v>22.15946648283541</v>
+        <v>22.55634096653237</v>
       </c>
       <c r="D17">
-        <v>5.073917713371321</v>
+        <v>5.281809220360177</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.19938734278836</v>
+        <v>19.13752723798747</v>
       </c>
       <c r="G17">
-        <v>25.96683691150255</v>
+        <v>24.02947833449899</v>
       </c>
       <c r="H17">
-        <v>5.681601739927013</v>
+        <v>5.685280789058853</v>
       </c>
       <c r="I17">
-        <v>3.116706271898135</v>
+        <v>3.104275041966644</v>
       </c>
       <c r="J17">
-        <v>8.864205868282991</v>
+        <v>8.99312063362841</v>
       </c>
       <c r="K17">
-        <v>12.31332994923815</v>
+        <v>11.72309038881453</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.31461515106613</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.102214925836171</v>
       </c>
       <c r="N17">
-        <v>6.181319693029099</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.168691159169057</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.7035584009822</v>
+        <v>28.69741465398695</v>
       </c>
       <c r="C18">
-        <v>21.12533777009372</v>
+        <v>21.63574035671591</v>
       </c>
       <c r="D18">
-        <v>4.831387280895147</v>
+        <v>5.046548497644678</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.41052281139363</v>
+        <v>20.19238605022962</v>
       </c>
       <c r="G18">
-        <v>28.17971497386639</v>
+        <v>25.76115484740662</v>
       </c>
       <c r="H18">
-        <v>4.454552320975086</v>
+        <v>4.449902219713205</v>
       </c>
       <c r="I18">
-        <v>3.082817115479771</v>
+        <v>3.073783589215157</v>
       </c>
       <c r="J18">
-        <v>9.333064774572875</v>
+        <v>9.442508966278094</v>
       </c>
       <c r="K18">
-        <v>13.2195631555418</v>
+        <v>12.43365267075749</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.79144534026374</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.706064980224178</v>
       </c>
       <c r="N18">
-        <v>6.896803754063105</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.887804894574518</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.59558109797958</v>
+        <v>28.58820174456852</v>
       </c>
       <c r="C19">
-        <v>20.08934085012638</v>
+        <v>20.73356660327024</v>
       </c>
       <c r="D19">
-        <v>4.58177364065924</v>
+        <v>4.814891995303283</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.03736525314701</v>
+        <v>21.54289413820378</v>
       </c>
       <c r="G19">
-        <v>31.10293598030553</v>
+        <v>28.15814365514526</v>
       </c>
       <c r="H19">
-        <v>3.08834475556816</v>
+        <v>3.080000903447148</v>
       </c>
       <c r="I19">
-        <v>3.100371260299354</v>
+        <v>3.089115012438541</v>
       </c>
       <c r="J19">
-        <v>9.92841117477616</v>
+        <v>9.924322442430761</v>
       </c>
       <c r="K19">
-        <v>14.3962389985038</v>
+        <v>13.3194556915283</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.39513451456554</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.465490435077033</v>
       </c>
       <c r="N19">
-        <v>8.020273818749553</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.010523360576093</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.17245759393586</v>
+        <v>29.15494157396578</v>
       </c>
       <c r="C20">
-        <v>19.04403027365067</v>
+        <v>19.87774463222858</v>
       </c>
       <c r="D20">
-        <v>4.299985443080419</v>
+        <v>4.572616033214653</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.86605420528166</v>
+        <v>23.77737408535218</v>
       </c>
       <c r="G20">
-        <v>36.06606454699384</v>
+        <v>32.45451053266118</v>
       </c>
       <c r="H20">
-        <v>2.149866043580887</v>
+        <v>2.117475681640889</v>
       </c>
       <c r="I20">
-        <v>3.245832944121707</v>
+        <v>3.212438177499013</v>
       </c>
       <c r="J20">
-        <v>10.90321542303516</v>
+        <v>10.51027813850055</v>
       </c>
       <c r="K20">
-        <v>16.33589157122507</v>
+        <v>14.68761814076002</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.2941346265034</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.707873227608262</v>
       </c>
       <c r="N20">
-        <v>10.04491827099287</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>10.0250683405243</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.95108825288438</v>
+        <v>30.91141301835368</v>
       </c>
       <c r="C21">
-        <v>19.95403929478701</v>
+        <v>20.7415214055851</v>
       </c>
       <c r="D21">
-        <v>4.342938411151073</v>
+        <v>4.754515160493459</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.2282497460095</v>
+        <v>24.27863867327534</v>
       </c>
       <c r="G21">
-        <v>38.21017573872771</v>
+        <v>35.58651214244382</v>
       </c>
       <c r="H21">
-        <v>2.461265576320185</v>
+        <v>2.389439799917041</v>
       </c>
       <c r="I21">
-        <v>3.521111009396099</v>
+        <v>3.440325599716396</v>
       </c>
       <c r="J21">
-        <v>11.21082778550824</v>
+        <v>9.568789412681866</v>
       </c>
       <c r="K21">
-        <v>16.66675436558926</v>
+        <v>14.45346467611847</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.98325976579948</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.800300665768106</v>
       </c>
       <c r="N21">
-        <v>10.65771957222312</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>10.61505783324337</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.0626309750502</v>
+        <v>32.00825958313037</v>
       </c>
       <c r="C22">
-        <v>20.56227440622661</v>
+        <v>21.30472980902802</v>
       </c>
       <c r="D22">
-        <v>4.376873637209944</v>
+        <v>4.885081394530791</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.04741590000976</v>
+        <v>24.53153514047189</v>
       </c>
       <c r="G22">
-        <v>39.48159795343769</v>
+        <v>37.59344923361421</v>
       </c>
       <c r="H22">
-        <v>2.655068663278826</v>
+        <v>2.558138028438175</v>
       </c>
       <c r="I22">
-        <v>3.692821500111468</v>
+        <v>3.580543978471857</v>
       </c>
       <c r="J22">
-        <v>11.39319188917773</v>
+        <v>8.910067583487123</v>
       </c>
       <c r="K22">
-        <v>16.84321961764591</v>
+        <v>14.25281478566485</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.74987103203602</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.831709108165397</v>
       </c>
       <c r="N22">
-        <v>10.95535072516257</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.89844869011195</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.47452039429082</v>
+        <v>31.42847878114798</v>
       </c>
       <c r="C23">
-        <v>20.21137543793994</v>
+        <v>20.99838248246236</v>
       </c>
       <c r="D23">
-        <v>4.353004910871465</v>
+        <v>4.798579443858982</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.66504997565801</v>
+        <v>24.51199795302585</v>
       </c>
       <c r="G23">
-        <v>38.90032847495696</v>
+        <v>36.46013834547123</v>
       </c>
       <c r="H23">
-        <v>2.552986510229393</v>
+        <v>2.470265454673391</v>
       </c>
       <c r="I23">
-        <v>3.598559082039361</v>
+        <v>3.502730002242548</v>
       </c>
       <c r="J23">
-        <v>11.31629021775989</v>
+        <v>9.394713169107638</v>
       </c>
       <c r="K23">
-        <v>16.79402759041644</v>
+        <v>14.43404665395677</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.92231652559169</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.878035657623936</v>
       </c>
       <c r="N23">
-        <v>10.79800800855941</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10.74914393750405</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.14592774293188</v>
+        <v>29.1282089246141</v>
       </c>
       <c r="C24">
-        <v>18.88538795258412</v>
+        <v>19.73189416103657</v>
       </c>
       <c r="D24">
-        <v>4.270500183490892</v>
+        <v>4.539900719364371</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.11498329019418</v>
+        <v>23.9944113987526</v>
       </c>
       <c r="G24">
-        <v>36.51358966271269</v>
+        <v>32.82679446071261</v>
       </c>
       <c r="H24">
-        <v>2.158282185047812</v>
+        <v>2.125456186058403</v>
       </c>
       <c r="I24">
-        <v>3.241410109637723</v>
+        <v>3.205474803223793</v>
       </c>
       <c r="J24">
-        <v>10.99981147480895</v>
+        <v>10.59729859296568</v>
       </c>
       <c r="K24">
-        <v>16.55076400692198</v>
+        <v>14.8611547796222</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.41592998815849</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.849474272021332</v>
       </c>
       <c r="N24">
-        <v>10.18204667426015</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>10.1621382744744</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.41678781791298</v>
+        <v>26.42192619392815</v>
       </c>
       <c r="C25">
-        <v>17.36426023479553</v>
+        <v>18.03942811453139</v>
       </c>
       <c r="D25">
-        <v>4.178008872807442</v>
+        <v>4.361485624492305</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.41541853424073</v>
+        <v>22.68620726842475</v>
       </c>
       <c r="G25">
-        <v>33.87686205520433</v>
+        <v>30.55690184774502</v>
       </c>
       <c r="H25">
-        <v>1.717682668106081</v>
+        <v>1.727539202086952</v>
       </c>
       <c r="I25">
-        <v>2.846865095188655</v>
+        <v>2.862692556700424</v>
       </c>
       <c r="J25">
-        <v>10.67642414407431</v>
+        <v>10.49005469930803</v>
       </c>
       <c r="K25">
-        <v>16.32351178955142</v>
+        <v>14.94075625475333</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.68256315705385</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.55618566551172</v>
       </c>
       <c r="N25">
-        <v>9.477711721062457</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>9.48389988258209</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
